--- a/Associado1-2/Planilha_DepEconomiaRelacoesInternacionais-Associado1-2-nelson.xlsx
+++ b/Associado1-2/Planilha_DepEconomiaRelacoesInternacionais-Associado1-2-nelson.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\proj\progressao_promocao_ufrgs\Associado1-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1EA8E-04F4-4EBF-B1E8-E873048F78BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="9525" windowHeight="11955" tabRatio="628"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPPD 01-18" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CPPD 01-18'!$A$1:$F$130</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1681,7 +1700,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="* #,##0\ ;* \(#,##0\);* \-#\ ;@\ "/>
     <numFmt numFmtId="165" formatCode="* #,##0.0\ ;* \(#,##0.0\);* \-#\ ;@\ "/>
@@ -1691,7 +1710,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2160,20 +2179,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2216,7 +2235,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2228,10 +2247,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2242,7 +2258,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2250,27 +2266,27 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -2353,7 +2369,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2365,15 +2381,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2386,9 +2402,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2411,20 +2424,12 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2435,11 +2440,8 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2470,10 +2472,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -2506,28 +2504,236 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="170" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2538,14 +2744,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -2554,10 +2752,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -2578,208 +2772,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2806,16 +2828,72 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2828,98 +2906,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2965,7 +2951,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3044,6 +3030,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3065,20 +3054,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Grupo 2"/>
+        <xdr:cNvPr id="3" name="Grupo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="836180" y="38966"/>
-          <a:ext cx="6781146" cy="536575"/>
+          <a:off x="871105" y="38966"/>
+          <a:ext cx="7044671" cy="565150"/>
           <a:chOff x="200025" y="38966"/>
           <a:chExt cx="6764549" cy="539461"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="1034" name="Imagem 4"/>
+          <xdr:cNvPr id="1034" name="Imagem 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -3087,7 +3088,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3110,14 +3111,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3131,7 +3132,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Imagem 1"/>
+          <xdr:cNvPr id="2" name="Imagem 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -3140,7 +3147,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3474,7 +3481,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3516,7 +3523,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3535,367 +3542,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53" style="28" customWidth="1"/>
-    <col min="3" max="5" width="13.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="19" width="8.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="51.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="72.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="75.28515625" style="2" customWidth="1"/>
-    <col min="24" max="43" width="8.42578125" style="2"/>
+    <col min="1" max="1" width="10.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="53" style="27" customWidth="1"/>
+    <col min="3" max="5" width="13.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="19" width="8.453125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="28.26953125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="51.54296875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="72.453125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="75.26953125" style="2" customWidth="1"/>
+    <col min="24" max="43" width="8.453125" style="2"/>
     <col min="44" max="44" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.42578125" style="2"/>
+    <col min="45" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="1"/>
-      <c r="I1" s="93">
+      <c r="I1" s="15">
         <v>0</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="53" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="114" t="s">
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="131" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="3"/>
-      <c r="I2" s="93">
+      <c r="I2" s="15">
         <v>10</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="53" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="117" t="s">
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="3"/>
-      <c r="I3" s="94">
+      <c r="I3" s="86">
         <f>F109</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="95" t="s">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J3" s="87" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="120" t="s">
+    <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="139"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="123" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="143" t="s">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="124" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="124" t="s">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="124" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="106" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="126" t="s">
+    <row r="13" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="102" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="113" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A14" s="126" t="s">
+    <row r="14" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="125" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A15" s="126" t="s">
+    <row r="15" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="125" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A16" s="126" t="s">
+    <row r="16" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="102">
+      <c r="B16" s="108"/>
+      <c r="C16" s="113">
         <v>169689</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A17" s="100" t="s">
+    <row r="17" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="96">
+      <c r="B17" s="144"/>
+      <c r="C17" s="142">
         <v>42500</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="100" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="103" t="s">
+      <c r="B18" s="144"/>
+      <c r="C18" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="100" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="144" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A20" s="100" t="s">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101">
+      <c r="B20" s="144"/>
+      <c r="C20" s="145">
         <v>40597</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="126" t="s">
+    <row r="21" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="113" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A23" s="144" t="s">
+    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="44">
+      <c r="B23" s="109"/>
+      <c r="C23" s="43">
         <v>42500</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="45">
+      <c r="E23" s="147"/>
+      <c r="F23" s="44">
         <v>45596</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="105" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="148" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="98" t="s">
+    <row r="26" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="29.1" customHeight="1">
-      <c r="A27" s="145" t="s">
+    <row r="27" spans="1:7" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="16.350000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>262</v>
       </c>
@@ -3905,202 +3912,211 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="46"/>
+      <c r="F28" s="45">
+        <v>44</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="46">
+        <v>12</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="47"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="103" t="s">
         <v>318</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="47"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="46">
+        <f>62*0.5+2</f>
+        <v>33</v>
+      </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A34" s="142" t="s">
+    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="16">
         <f>IF(F33&lt;=8,0,IF(F33&gt;8,F33-8))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A36" s="142" t="s">
+    <row r="36" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="11">
         <f>SUM(F28:F32)+IF(F33&lt;8,F33,8)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="135" t="s">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="48"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="47">
+        <v>32</v>
+      </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="33" customHeight="1">
-      <c r="A38" s="135" t="s">
+    <row r="38" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
       <c r="F38" s="10">
         <f>IF(C19="20 horas",IF(F36&gt;F37,(F36-F37)/2,0),0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="141" t="s">
+    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F41" s="81" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="60">
-      <c r="A42" s="83" t="s">
+    <row r="42" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A42" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="D42" s="76">
+      <c r="D42" s="71">
         <v>15</v>
       </c>
-      <c r="E42" s="88"/>
+      <c r="E42" s="82"/>
       <c r="F42" s="14">
         <f>E42*D42</f>
         <v>0</v>
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="60">
-      <c r="A43" s="83" t="s">
+    <row r="43" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A43" s="77" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="72" t="s">
         <v>327</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -4109,18 +4125,18 @@
       <c r="D43" s="13">
         <v>6</v>
       </c>
-      <c r="E43" s="78"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="16">
         <f t="shared" ref="F43:F61" si="0">D43*E43</f>
         <v>0</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="60">
-      <c r="A44" s="83" t="s">
+    <row r="44" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A44" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="72" t="s">
         <v>328</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -4129,18 +4145,18 @@
       <c r="D44" s="13">
         <v>5</v>
       </c>
-      <c r="E44" s="78"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="60">
-      <c r="A45" s="83" t="s">
+    <row r="45" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A45" s="77" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="72" t="s">
         <v>329</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -4149,18 +4165,18 @@
       <c r="D45" s="13">
         <v>6</v>
       </c>
-      <c r="E45" s="78"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="60">
-      <c r="A46" s="83" t="s">
+    <row r="46" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="72" t="s">
         <v>330</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -4169,34 +4185,34 @@
       <c r="D46" s="13">
         <v>2.5</v>
       </c>
-      <c r="E46" s="78"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="83" t="s">
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="B47" s="90" t="s">
+      <c r="B47" s="72" t="s">
         <v>331</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="78"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="60">
-      <c r="A48" s="83" t="s">
+    <row r="48" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="72" t="s">
         <v>367</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -4205,18 +4221,18 @@
       <c r="D48" s="13">
         <v>15</v>
       </c>
-      <c r="E48" s="78"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="60">
-      <c r="A49" s="83" t="s">
+    <row r="49" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="90" t="s">
+      <c r="B49" s="72" t="s">
         <v>368</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -4225,18 +4241,18 @@
       <c r="D49" s="13">
         <v>10</v>
       </c>
-      <c r="E49" s="78"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="60">
-      <c r="A50" s="83" t="s">
+    <row r="50" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="72" t="s">
         <v>369</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -4245,18 +4261,18 @@
       <c r="D50" s="13">
         <v>6</v>
       </c>
-      <c r="E50" s="78"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="60">
-      <c r="A51" s="83" t="s">
+    <row r="51" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="B51" s="90" t="s">
+      <c r="B51" s="72" t="s">
         <v>370</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -4265,18 +4281,18 @@
       <c r="D51" s="13">
         <v>5</v>
       </c>
-      <c r="E51" s="78"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="60">
-      <c r="A52" s="83" t="s">
+    <row r="52" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A52" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="72" t="s">
         <v>371</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -4285,34 +4301,36 @@
       <c r="D52" s="13">
         <v>4</v>
       </c>
-      <c r="E52" s="78"/>
+      <c r="E52" s="73">
+        <v>2</v>
+      </c>
       <c r="F52" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1">
-      <c r="A53" s="83" t="s">
+    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="72" t="s">
         <v>332</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="78"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="60">
-      <c r="A54" s="83" t="s">
+    <row r="54" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A54" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="72" t="s">
         <v>374</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -4321,18 +4339,18 @@
       <c r="D54" s="13">
         <v>3</v>
       </c>
-      <c r="E54" s="78"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="60">
-      <c r="A55" s="83" t="s">
+    <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A55" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="72" t="s">
         <v>375</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -4341,18 +4359,18 @@
       <c r="D55" s="13">
         <v>2</v>
       </c>
-      <c r="E55" s="78"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="60">
-      <c r="A56" s="83" t="s">
+    <row r="56" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A56" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="72" t="s">
         <v>333</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -4361,20 +4379,18 @@
       <c r="D56" s="13">
         <v>4</v>
       </c>
-      <c r="E56" s="78">
-        <v>2</v>
-      </c>
+      <c r="E56" s="73"/>
       <c r="F56" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="60">
-      <c r="A57" s="83" t="s">
+    <row r="57" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A57" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="72" t="s">
         <v>334</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -4383,18 +4399,20 @@
       <c r="D57" s="13">
         <v>4</v>
       </c>
-      <c r="E57" s="78"/>
+      <c r="E57" s="73">
+        <v>1</v>
+      </c>
       <c r="F57" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="60">
-      <c r="A58" s="83" t="s">
+    <row r="58" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="72" t="s">
         <v>335</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -4403,18 +4421,18 @@
       <c r="D58" s="13">
         <v>2</v>
       </c>
-      <c r="E58" s="78"/>
+      <c r="E58" s="73"/>
       <c r="F58" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="60">
-      <c r="A59" s="83" t="s">
+    <row r="59" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="72" t="s">
         <v>336</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -4423,18 +4441,18 @@
       <c r="D59" s="13">
         <v>1</v>
       </c>
-      <c r="E59" s="78"/>
+      <c r="E59" s="73"/>
       <c r="F59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="60">
-      <c r="A60" s="83" t="s">
+    <row r="60" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A60" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="90" t="s">
+      <c r="B60" s="72" t="s">
         <v>337</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -4443,18 +4461,18 @@
       <c r="D60" s="13">
         <v>25</v>
       </c>
-      <c r="E60" s="78"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="60">
-      <c r="A61" s="83" t="s">
+    <row r="61" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="72" t="s">
         <v>338</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -4463,52 +4481,52 @@
       <c r="D61" s="13">
         <v>15</v>
       </c>
-      <c r="E61" s="78"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1">
-      <c r="A62" s="153" t="s">
+    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="C62" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="D62" s="148"/>
-      <c r="E62" s="155">
-        <v>28</v>
-      </c>
-      <c r="F62" s="157">
+      <c r="D62" s="90"/>
+      <c r="E62" s="99">
+        <v>48</v>
+      </c>
+      <c r="F62" s="101">
         <f>E62/20</f>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="92.25" customHeight="1">
-      <c r="A63" s="154"/>
-      <c r="B63" s="152"/>
-      <c r="C63" s="149" t="s">
+    <row r="63" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="98"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="93" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="158"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="102"/>
       <c r="G63" s="3"/>
       <c r="M63" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="90">
-      <c r="A64" s="83" t="s">
+    <row r="64" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A64" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="B64" s="90" t="s">
+      <c r="B64" s="72" t="s">
         <v>339</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -4517,20 +4535,20 @@
       <c r="D64" s="13">
         <v>2</v>
       </c>
-      <c r="E64" s="78">
-        <v>16</v>
+      <c r="E64" s="73">
+        <v>8</v>
       </c>
       <c r="F64" s="16">
         <f>D64*E64</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1">
-      <c r="A65" s="83" t="s">
+    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="72" t="s">
         <v>340</v>
       </c>
       <c r="C65" s="13" t="s">
@@ -4539,18 +4557,18 @@
       <c r="D65" s="13">
         <v>0</v>
       </c>
-      <c r="E65" s="78"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="16">
         <f t="shared" ref="F65:F76" si="1">D65*E65</f>
         <v>0</v>
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:21" ht="30" customHeight="1">
-      <c r="A66" s="83" t="s">
+    <row r="66" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="72" t="s">
         <v>341</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -4559,18 +4577,18 @@
       <c r="D66" s="13">
         <v>0</v>
       </c>
-      <c r="E66" s="78"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:21" ht="60">
-      <c r="A67" s="83" t="s">
+    <row r="67" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="72" t="s">
         <v>342</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -4579,18 +4597,20 @@
       <c r="D67" s="13">
         <v>10</v>
       </c>
-      <c r="E67" s="78"/>
+      <c r="E67" s="73">
+        <v>2</v>
+      </c>
       <c r="F67" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:21" ht="60">
-      <c r="A68" s="83" t="s">
+    <row r="68" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A68" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="72" t="s">
         <v>343</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -4599,18 +4619,18 @@
       <c r="D68" s="13">
         <v>4</v>
       </c>
-      <c r="E68" s="78"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:21" ht="75">
-      <c r="A69" s="83" t="s">
+    <row r="69" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="72" t="s">
         <v>344</v>
       </c>
       <c r="C69" s="13" t="s">
@@ -4619,36 +4639,36 @@
       <c r="D69" s="13">
         <v>0.25</v>
       </c>
-      <c r="E69" s="78">
-        <v>2</v>
+      <c r="E69" s="73">
+        <v>4</v>
       </c>
       <c r="F69" s="16">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A70" s="83" t="s">
+    <row r="70" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="72" t="s">
         <v>345</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="78"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:21" ht="75">
-      <c r="A71" s="83" t="s">
+    <row r="71" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="77" t="s">
         <v>399</v>
       </c>
-      <c r="B71" s="90" t="s">
+      <c r="B71" s="72" t="s">
         <v>405</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -4657,18 +4677,18 @@
       <c r="D71" s="13">
         <v>0.25</v>
       </c>
-      <c r="E71" s="78"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:21" ht="75">
-      <c r="A72" s="83" t="s">
+    <row r="72" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="72" t="s">
         <v>406</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -4677,18 +4697,18 @@
       <c r="D72" s="13">
         <v>0.25</v>
       </c>
-      <c r="E72" s="78"/>
+      <c r="E72" s="73"/>
       <c r="F72" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:21" ht="75">
-      <c r="A73" s="83" t="s">
+    <row r="73" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="B73" s="90" t="s">
+      <c r="B73" s="72" t="s">
         <v>407</v>
       </c>
       <c r="C73" s="13" t="s">
@@ -4697,18 +4717,18 @@
       <c r="D73" s="13">
         <v>0.25</v>
       </c>
-      <c r="E73" s="78"/>
+      <c r="E73" s="73"/>
       <c r="F73" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:21" ht="75">
-      <c r="A74" s="83" t="s">
+    <row r="74" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="B74" s="90" t="s">
+      <c r="B74" s="72" t="s">
         <v>408</v>
       </c>
       <c r="C74" s="13" t="s">
@@ -4717,18 +4737,18 @@
       <c r="D74" s="13">
         <v>0.25</v>
       </c>
-      <c r="E74" s="78"/>
+      <c r="E74" s="73"/>
       <c r="F74" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:21" ht="75">
-      <c r="A75" s="83" t="s">
+    <row r="75" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="77" t="s">
         <v>403</v>
       </c>
-      <c r="B75" s="90" t="s">
+      <c r="B75" s="72" t="s">
         <v>409</v>
       </c>
       <c r="C75" s="13" t="s">
@@ -4737,18 +4757,18 @@
       <c r="D75" s="13">
         <v>0.25</v>
       </c>
-      <c r="E75" s="78"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:21" ht="75">
-      <c r="A76" s="83" t="s">
+    <row r="76" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="72" t="s">
         <v>410</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -4757,132 +4777,134 @@
       <c r="D76" s="13">
         <v>0.25</v>
       </c>
-      <c r="E76" s="78"/>
+      <c r="E76" s="73"/>
       <c r="F76" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A77" s="99"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
+    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:21" ht="29.85" customHeight="1">
-      <c r="A78" s="142" t="s">
+    <row r="78" spans="1:21" ht="29.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="142"/>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
       <c r="F78" s="17">
         <f>SUM(F42:F76)</f>
-        <v>41.9</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="U78" s="19"/>
-    </row>
-    <row r="79" spans="1:21" ht="29.45" customHeight="1">
-      <c r="A79" s="135" t="s">
+        <v>51.4</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="U78" s="18"/>
+    </row>
+    <row r="79" spans="1:21" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="135"/>
-      <c r="C79" s="135"/>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="48"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="47">
+        <v>25</v>
+      </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99"/>
-      <c r="F80" s="99"/>
+    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="141" t="s">
+    <row r="81" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="141"/>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="141"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="91"/>
+      <c r="D81" s="91"/>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="30">
-      <c r="A82" s="87"/>
-      <c r="B82" s="87" t="s">
+    <row r="82" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="81"/>
+      <c r="B82" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="C82" s="87" t="s">
+      <c r="C82" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="D82" s="87" t="s">
+      <c r="D82" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="E82" s="87" t="s">
+      <c r="E82" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="F82" s="87" t="s">
+      <c r="F82" s="81" t="s">
         <v>40</v>
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="75">
-      <c r="A83" s="83" t="s">
+    <row r="83" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="D83" s="76">
+      <c r="D83" s="71">
         <v>0.25</v>
       </c>
-      <c r="E83" s="88"/>
+      <c r="E83" s="82"/>
       <c r="F83" s="14">
         <f>D83*E83</f>
         <v>0</v>
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="75">
-      <c r="A84" s="83" t="s">
+    <row r="84" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C84" s="71" t="s">
         <v>412</v>
       </c>
       <c r="D84" s="13">
         <v>0.25</v>
       </c>
-      <c r="E84" s="78"/>
+      <c r="E84" s="73"/>
       <c r="F84" s="16">
         <f t="shared" ref="F84:F103" si="2">D84*E84</f>
         <v>0</v>
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="105">
-      <c r="A85" s="83" t="s">
+    <row r="85" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A85" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B85" s="90" t="s">
+      <c r="B85" s="72" t="s">
         <v>352</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -4891,18 +4913,18 @@
       <c r="D85" s="13">
         <v>10</v>
       </c>
-      <c r="E85" s="78"/>
+      <c r="E85" s="73"/>
       <c r="F85" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="138" customHeight="1">
-      <c r="A86" s="83" t="s">
+    <row r="86" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="77" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="90" t="s">
+      <c r="B86" s="72" t="s">
         <v>353</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -4911,18 +4933,21 @@
       <c r="D86" s="13">
         <v>5</v>
       </c>
-      <c r="E86" s="78"/>
+      <c r="E86" s="73">
+        <f>7/180</f>
+        <v>3.888888888888889E-2</v>
+      </c>
       <c r="F86" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="75">
-      <c r="A87" s="83" t="s">
+    <row r="87" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="B87" s="90" t="s">
+      <c r="B87" s="72" t="s">
         <v>346</v>
       </c>
       <c r="C87" s="13" t="s">
@@ -4931,18 +4956,21 @@
       <c r="D87" s="13">
         <v>2.5</v>
       </c>
-      <c r="E87" s="78"/>
+      <c r="E87" s="73">
+        <f>1044/180</f>
+        <v>5.8</v>
+      </c>
       <c r="F87" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="75">
-      <c r="A88" s="83" t="s">
+    <row r="88" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="B88" s="90" t="s">
+      <c r="B88" s="72" t="s">
         <v>347</v>
       </c>
       <c r="C88" s="13" t="s">
@@ -4951,18 +4979,18 @@
       <c r="D88" s="13">
         <v>5</v>
       </c>
-      <c r="E88" s="78"/>
+      <c r="E88" s="73"/>
       <c r="F88" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="90">
-      <c r="A89" s="83" t="s">
+    <row r="89" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="B89" s="90" t="s">
+      <c r="B89" s="72" t="s">
         <v>348</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -4971,31 +4999,31 @@
       <c r="D89" s="13">
         <v>2.5</v>
       </c>
-      <c r="E89" s="78"/>
+      <c r="E89" s="73"/>
       <c r="F89" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="45">
-      <c r="A90" s="83" t="s">
+    <row r="90" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="77" t="s">
         <v>296</v>
       </c>
-      <c r="B90" s="90" t="s">
+      <c r="B90" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="C90" s="146"/>
-      <c r="D90" s="147"/>
-      <c r="E90" s="148"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="90"/>
       <c r="F90" s="16"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="75">
-      <c r="A91" s="83" t="s">
+    <row r="91" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="B91" s="90" t="s">
+      <c r="B91" s="72" t="s">
         <v>420</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -5004,18 +5032,18 @@
       <c r="D91" s="13">
         <v>2</v>
       </c>
-      <c r="E91" s="78"/>
+      <c r="E91" s="73"/>
       <c r="F91" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="75">
-      <c r="A92" s="83" t="s">
+    <row r="92" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="B92" s="90" t="s">
+      <c r="B92" s="72" t="s">
         <v>421</v>
       </c>
       <c r="C92" s="13" t="s">
@@ -5024,18 +5052,20 @@
       <c r="D92" s="13">
         <v>2</v>
       </c>
-      <c r="E92" s="78"/>
+      <c r="E92" s="73">
+        <v>9</v>
+      </c>
       <c r="F92" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="75">
-      <c r="A93" s="83" t="s">
+    <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="77" t="s">
         <v>416</v>
       </c>
-      <c r="B93" s="90" t="s">
+      <c r="B93" s="72" t="s">
         <v>422</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -5044,18 +5074,20 @@
       <c r="D93" s="13">
         <v>2</v>
       </c>
-      <c r="E93" s="78"/>
+      <c r="E93" s="73">
+        <v>19</v>
+      </c>
       <c r="F93" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="75">
-      <c r="A94" s="83" t="s">
+    <row r="94" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="77" t="s">
         <v>417</v>
       </c>
-      <c r="B94" s="90" t="s">
+      <c r="B94" s="72" t="s">
         <v>423</v>
       </c>
       <c r="C94" s="13" t="s">
@@ -5064,18 +5096,20 @@
       <c r="D94" s="13">
         <v>2</v>
       </c>
-      <c r="E94" s="78"/>
+      <c r="E94" s="73">
+        <v>1</v>
+      </c>
       <c r="F94" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="75">
-      <c r="A95" s="83" t="s">
+    <row r="95" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="77" t="s">
         <v>418</v>
       </c>
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="72" t="s">
         <v>424</v>
       </c>
       <c r="C95" s="13" t="s">
@@ -5084,18 +5118,18 @@
       <c r="D95" s="13">
         <v>2</v>
       </c>
-      <c r="E95" s="78"/>
+      <c r="E95" s="73"/>
       <c r="F95" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="75">
-      <c r="A96" s="83" t="s">
+    <row r="96" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="77" t="s">
         <v>419</v>
       </c>
-      <c r="B96" s="90" t="s">
+      <c r="B96" s="72" t="s">
         <v>425</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -5104,47 +5138,47 @@
       <c r="D96" s="13">
         <v>2</v>
       </c>
-      <c r="E96" s="78"/>
+      <c r="E96" s="73"/>
       <c r="F96" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="83" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="77" t="s">
         <v>296</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C97" s="146"/>
-      <c r="D97" s="147"/>
-      <c r="E97" s="148"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="90"/>
       <c r="F97" s="16">
         <f>IF(SUM(F91:F96)&lt;=10,SUM(F91:F96),IF(SUM(F91:F96)&gt;10,10))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="45">
-      <c r="A98" s="83" t="s">
+    <row r="98" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="B98" s="90" t="s">
+      <c r="B98" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C98" s="146"/>
-      <c r="D98" s="147"/>
-      <c r="E98" s="148"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="90"/>
       <c r="F98" s="16"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="75">
-      <c r="A99" s="83" t="s">
+    <row r="99" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="B99" s="90" t="s">
+      <c r="B99" s="72" t="s">
         <v>430</v>
       </c>
       <c r="C99" s="13" t="s">
@@ -5153,7 +5187,7 @@
       <c r="D99" s="13">
         <v>2.5</v>
       </c>
-      <c r="E99" s="78"/>
+      <c r="E99" s="73"/>
       <c r="F99" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5162,11 +5196,11 @@
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" ht="75">
-      <c r="A100" s="83" t="s">
+    <row r="100" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="B100" s="90" t="s">
+      <c r="B100" s="72" t="s">
         <v>431</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -5175,7 +5209,7 @@
       <c r="D100" s="13">
         <v>2.5</v>
       </c>
-      <c r="E100" s="78"/>
+      <c r="E100" s="73"/>
       <c r="F100" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5184,11 +5218,11 @@
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" ht="75">
-      <c r="A101" s="83" t="s">
+    <row r="101" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="B101" s="90" t="s">
+      <c r="B101" s="72" t="s">
         <v>432</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -5197,7 +5231,7 @@
       <c r="D101" s="13">
         <v>2.5</v>
       </c>
-      <c r="E101" s="78"/>
+      <c r="E101" s="73"/>
       <c r="F101" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5206,11 +5240,11 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" ht="75">
-      <c r="A102" s="83" t="s">
+    <row r="102" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="B102" s="90" t="s">
+      <c r="B102" s="72" t="s">
         <v>433</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -5219,7 +5253,7 @@
       <c r="D102" s="13">
         <v>2.5</v>
       </c>
-      <c r="E102" s="78"/>
+      <c r="E102" s="73"/>
       <c r="F102" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5228,11 +5262,11 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" ht="75">
-      <c r="A103" s="83" t="s">
+    <row r="103" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="77" t="s">
         <v>429</v>
       </c>
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="72" t="s">
         <v>434</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -5241,7 +5275,7 @@
       <c r="D103" s="13">
         <v>2.5</v>
       </c>
-      <c r="E103" s="78"/>
+      <c r="E103" s="73"/>
       <c r="F103" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5250,16 +5284,16 @@
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="83" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="77" t="s">
         <v>297</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C104" s="146"/>
-      <c r="D104" s="147"/>
-      <c r="E104" s="148"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="90"/>
       <c r="F104" s="16">
         <f>IF(SUM(F99:F103)&lt;=10,SUM(F99:F103),IF(SUM(F99:F103)&gt;10,10))</f>
         <v>0</v>
@@ -5268,346 +5302,350 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A105" s="127"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="99"/>
-      <c r="D105" s="99"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="128"/>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="118"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="119"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A106" s="142" t="s">
+    <row r="106" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="142"/>
-      <c r="C106" s="142"/>
-      <c r="D106" s="142"/>
-      <c r="E106" s="142"/>
-      <c r="F106" s="20">
+      <c r="B106" s="111"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="19">
         <f>SUM(F83:F89)+F97+F104</f>
-        <v>0</v>
+        <v>24.694444444444443</v>
       </c>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A107" s="99"/>
-      <c r="B107" s="99"/>
-      <c r="C107" s="99"/>
-      <c r="D107" s="99"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="99"/>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="92"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="141" t="s">
+    <row r="108" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="141"/>
-      <c r="C108" s="141"/>
-      <c r="D108" s="141"/>
-      <c r="E108" s="141"/>
-      <c r="F108" s="141"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="91"/>
+      <c r="F108" s="91"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="30" customHeight="1">
+    <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B109" s="135" t="s">
+      <c r="B109" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="C109" s="135"/>
-      <c r="D109" s="135"/>
-      <c r="E109" s="135"/>
-      <c r="F109" s="49"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="48">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1">
-      <c r="A110" s="142" t="s">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="142"/>
-      <c r="C110" s="142"/>
-      <c r="D110" s="142"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="20">
+      <c r="B110" s="111"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="19">
         <f>IF((I3-(I2+I1)/2)&gt;0,((I3-(I2+I1)/2)/(I2-I1))*20,0)</f>
         <v>0</v>
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B111" s="21"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="23"/>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="20"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A112" s="141" t="s">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="141"/>
-      <c r="C112" s="141"/>
-      <c r="D112" s="141"/>
-      <c r="E112" s="141"/>
-      <c r="F112" s="141"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="132" t="s">
+    <row r="113" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="B113" s="133"/>
-      <c r="C113" s="133"/>
-      <c r="D113" s="133"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="134"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
+      <c r="F113" s="116"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:19" ht="15" customHeight="1">
-      <c r="A114" s="138" t="s">
+    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="139"/>
-      <c r="C114" s="139"/>
-      <c r="D114" s="139"/>
-      <c r="E114" s="140"/>
-      <c r="F114" s="50"/>
+      <c r="B114" s="104"/>
+      <c r="C114" s="104"/>
+      <c r="D114" s="104"/>
+      <c r="E114" s="117"/>
+      <c r="F114" s="49"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:19" ht="30" customHeight="1">
-      <c r="A115" s="138" t="s">
+    <row r="115" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="139"/>
-      <c r="C115" s="139"/>
-      <c r="D115" s="139"/>
-      <c r="E115" s="140"/>
-      <c r="F115" s="50"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="49"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A116" s="136"/>
-      <c r="B116" s="136"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="136"/>
-      <c r="F116" s="137"/>
+    <row r="116" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="123"/>
+      <c r="B116" s="123"/>
+      <c r="C116" s="123"/>
+      <c r="D116" s="123"/>
+      <c r="E116" s="123"/>
+      <c r="F116" s="124"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A117" s="132" t="s">
+    <row r="117" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="114" t="s">
         <v>313</v>
       </c>
-      <c r="B117" s="133"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="133"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="134"/>
+      <c r="B117" s="115"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="115"/>
+      <c r="F117" s="116"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:19" ht="16.350000000000001" customHeight="1">
+    <row r="118" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B118" s="89" t="s">
+      <c r="B118" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="20">
+      <c r="C118" s="79"/>
+      <c r="D118" s="79"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="19">
         <f>IF(C19="20 horas",IF(F78+F115/2&gt;=F79,F36,IF(F38-(F79-T139)&lt;0,F36-2*F38,F37+2*(F38-(F79-T139)))),F36)</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="18"/>
-      <c r="H118" s="24"/>
-    </row>
-    <row r="119" spans="1:19" ht="16.350000000000001" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="23"/>
+    </row>
+    <row r="119" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B119" s="89" t="s">
+      <c r="B119" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="20">
+      <c r="C119" s="79"/>
+      <c r="D119" s="79"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="19">
         <f>IF(F78&gt;=F79,F78,IF(F78+F115/2&gt;F79,F79,IF(F78+F115/2+F38&gt;F79,F79,F78+F115/2+F38)))</f>
-        <v>41.9</v>
-      </c>
-      <c r="G119" s="18"/>
-      <c r="H119" s="24"/>
-    </row>
-    <row r="120" spans="1:19" ht="16.350000000000001" customHeight="1">
+        <v>51.4</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="23"/>
+    </row>
+    <row r="120" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B120" s="138" t="s">
+      <c r="B120" s="103" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="139"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="86"/>
-      <c r="F120" s="20">
+      <c r="C120" s="104"/>
+      <c r="D120" s="79"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="19">
         <f>F106</f>
-        <v>0</v>
+        <v>24.694444444444443</v>
       </c>
       <c r="G120" s="3"/>
-      <c r="H120" s="24"/>
+      <c r="H120" s="23"/>
       <c r="S120" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B121" s="89" t="s">
+      <c r="B121" s="83" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="86"/>
-      <c r="F121" s="20">
+      <c r="C121" s="79"/>
+      <c r="D121" s="79"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="19">
         <f>F110</f>
         <v>0</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="24"/>
-    </row>
-    <row r="122" spans="1:19" ht="16.350000000000001" customHeight="1">
-      <c r="A122" s="99"/>
-      <c r="B122" s="99"/>
-      <c r="C122" s="99"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="99"/>
-      <c r="F122" s="99"/>
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="92"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:19">
-      <c r="A123" s="142" t="s">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A123" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="142"/>
-      <c r="C123" s="142"/>
-      <c r="D123" s="142"/>
-      <c r="E123" s="142"/>
-      <c r="F123" s="20">
+      <c r="B123" s="111"/>
+      <c r="C123" s="111"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="19">
         <f>IF(T136&gt;=F124,T136,IF(T136+T137&gt;=F124,F124,T136+T137))</f>
-        <v>41.9</v>
+        <v>140.09444444444443</v>
       </c>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="135" t="s">
+    <row r="124" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B124" s="135"/>
-      <c r="C124" s="135"/>
-      <c r="D124" s="135"/>
-      <c r="E124" s="135"/>
-      <c r="F124" s="48"/>
-      <c r="G124" s="25"/>
-    </row>
-    <row r="125" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="99"/>
-      <c r="B125" s="99"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="99"/>
-      <c r="E125" s="99"/>
-      <c r="F125" s="99"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="26"/>
-    </row>
-    <row r="126" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A126" s="129" t="s">
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="107"/>
+      <c r="E124" s="107"/>
+      <c r="F124" s="47">
+        <v>70</v>
+      </c>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="92"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+    </row>
+    <row r="126" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="130"/>
-      <c r="C126" s="130"/>
-      <c r="D126" s="130"/>
-      <c r="E126" s="130"/>
-      <c r="F126" s="131"/>
-    </row>
-    <row r="127" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="132" t="s">
+      <c r="B126" s="121"/>
+      <c r="C126" s="121"/>
+      <c r="D126" s="121"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="122"/>
+    </row>
+    <row r="127" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="114" t="s">
         <v>435</v>
       </c>
-      <c r="B127" s="133"/>
-      <c r="C127" s="133"/>
-      <c r="D127" s="133"/>
-      <c r="E127" s="133"/>
-      <c r="F127" s="134"/>
-    </row>
-    <row r="128" spans="1:19" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="135" t="s">
+      <c r="B127" s="115"/>
+      <c r="C127" s="115"/>
+      <c r="D127" s="115"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="116"/>
+    </row>
+    <row r="128" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="135"/>
-      <c r="C128" s="135"/>
-      <c r="D128" s="135"/>
-      <c r="E128" s="135"/>
-      <c r="F128" s="91">
+      <c r="B128" s="107"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="107"/>
+      <c r="F128" s="84">
         <f>IF(F123&gt;F124,MIN(F123-F124,F36-F37),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" ht="29.1" customHeight="1">
-      <c r="A129" s="135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="135"/>
-      <c r="C129" s="135"/>
-      <c r="D129" s="135"/>
-      <c r="E129" s="135"/>
-      <c r="F129" s="91">
+      <c r="B129" s="107"/>
+      <c r="C129" s="107"/>
+      <c r="D129" s="107"/>
+      <c r="E129" s="107"/>
+      <c r="F129" s="84">
         <f>IF(F123&gt;F124,MIN(F123-F124,F119-F79),0)</f>
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1">
-      <c r="A130" s="108" t="s">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="B130" s="109"/>
-      <c r="C130" s="109"/>
-      <c r="D130" s="109"/>
-      <c r="E130" s="110"/>
-      <c r="F130" s="92">
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="126"/>
+      <c r="E130" s="127"/>
+      <c r="F130" s="85">
         <f>IF(F124-F37-F79&lt;=F106+F121,F123-F124-(F120+F121-F124+F37+F79),SUMIF(F128:F129,"&gt;=0"))</f>
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
-      <c r="B131" s="21"/>
+        <v>58.399999999999991</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B131" s="20"/>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
-      <c r="F131" s="27"/>
-    </row>
-    <row r="132" spans="1:21" ht="15.75" customHeight="1">
-      <c r="F132" s="29"/>
-    </row>
-    <row r="133" spans="1:21">
-      <c r="T133" s="30" t="s">
+      <c r="F131" s="26"/>
+    </row>
+    <row r="132" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F132" s="28"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T133" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="U133" s="30" t="s">
+      <c r="U133" s="29" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="18" customHeight="1">
-      <c r="T134" s="31">
+    <row r="134" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T134" s="30">
         <f>(F115/2-(F119-F78))</f>
         <v>0</v>
       </c>
@@ -5615,23 +5653,23 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15" customHeight="1">
-      <c r="T135" s="32"/>
+    <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T135" s="31"/>
       <c r="U135" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
-      <c r="T136" s="32">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T136" s="31">
         <f>IF(SUM(F118:F121)&gt;=F124,SUM(F118:F121),IF(SUM(F118:F121)&lt;F124,SUM(F118:F121)+F34))</f>
-        <v>41.9</v>
+        <v>140.09444444444443</v>
       </c>
       <c r="U136" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
-      <c r="T137" s="32">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T137" s="31">
         <f>F114/2+IF(T134&lt;=0,0,T134)</f>
         <v>0</v>
       </c>
@@ -5639,703 +5677,745 @@
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
-      <c r="T138" s="33">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T138" s="32">
         <f>IF(F36-F118&gt;=0,F118-F37,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U138" s="6"/>
     </row>
-    <row r="139" spans="1:21">
-      <c r="T139" s="34">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T139" s="33">
         <f>F78+F115/2</f>
-        <v>41.9</v>
+        <v>51.4</v>
       </c>
       <c r="U139" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="20:23" ht="17.25">
-      <c r="T228" s="35" t="s">
+    <row r="228" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="T228" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="U228" s="36" t="s">
+      <c r="U228" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="V228" s="36" t="s">
+      <c r="V228" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="W228" s="37" t="s">
+      <c r="W228" s="36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="20:23" ht="17.25">
-      <c r="T229" s="35" t="s">
+    <row r="229" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="T229" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="U229" s="38" t="s">
+      <c r="U229" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="V229" s="38" t="s">
+      <c r="V229" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="W229" s="39" t="s">
+      <c r="W229" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="20:23" ht="17.25">
-      <c r="T230" s="35" t="s">
+    <row r="230" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="T230" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="U230" s="38" t="s">
+      <c r="U230" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="V230" s="38" t="s">
+      <c r="V230" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="W230" s="40" t="s">
+      <c r="W230" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="231" spans="20:23" ht="17.25">
-      <c r="T231" s="35" t="s">
+    <row r="231" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="T231" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="U231" s="41" t="s">
+      <c r="U231" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="V231" s="38" t="s">
+      <c r="V231" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="W231" s="40" t="s">
+      <c r="W231" s="39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="20:23" ht="17.25">
-      <c r="U232" s="42" t="s">
+    <row r="232" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U232" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="V232" s="38" t="s">
+      <c r="V232" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="W232" s="40" t="s">
+      <c r="W232" s="39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="233" spans="20:23" ht="17.25">
-      <c r="U233" s="42" t="s">
+    <row r="233" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U233" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="V233" s="38" t="s">
+      <c r="V233" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="W233" s="39" t="s">
+      <c r="W233" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="20:23" ht="17.25">
-      <c r="U234" s="42" t="s">
+    <row r="234" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U234" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="V234" s="38" t="s">
+      <c r="V234" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W234" s="40" t="s">
+      <c r="W234" s="39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="20:23" ht="17.25">
-      <c r="U235" s="42" t="s">
+    <row r="235" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U235" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="V235" s="38" t="s">
+      <c r="V235" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="W235" s="40" t="s">
+      <c r="W235" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="20:23" ht="17.25">
-      <c r="U236" s="42" t="s">
+    <row r="236" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U236" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="V236" s="38" t="s">
+      <c r="V236" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="W236" s="40" t="s">
+      <c r="W236" s="39" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="20:23" ht="17.25">
-      <c r="U237" s="42" t="s">
+    <row r="237" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U237" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="V237" s="38" t="s">
+      <c r="V237" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="W237" s="39" t="s">
+      <c r="W237" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="20:23" ht="17.25">
-      <c r="U238" s="42" t="s">
+    <row r="238" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U238" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="V238" s="38" t="s">
+      <c r="V238" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="W238" s="40" t="s">
+      <c r="W238" s="39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="239" spans="20:23" ht="17.25">
-      <c r="U239" s="42" t="s">
+    <row r="239" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U239" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="V239" s="38" t="s">
+      <c r="V239" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="W239" s="39" t="s">
+      <c r="W239" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="240" spans="20:23" ht="17.25">
-      <c r="U240" s="43" t="s">
+    <row r="240" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U240" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="V240" s="38" t="s">
+      <c r="V240" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="W240" s="40" t="s">
+      <c r="W240" s="39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="21:23" ht="17.25">
-      <c r="U241" s="42" t="s">
+    <row r="241" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U241" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="V241" s="38" t="s">
+      <c r="V241" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="W241" s="39" t="s">
+      <c r="W241" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="21:23" ht="17.25">
-      <c r="U242" s="42" t="s">
+    <row r="242" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U242" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="V242" s="38" t="s">
+      <c r="V242" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="W242" s="40" t="s">
+      <c r="W242" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="21:23" ht="17.25">
-      <c r="U243" s="43" t="s">
+    <row r="243" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U243" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="V243" s="38" t="s">
+      <c r="V243" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="W243" s="40" t="s">
+      <c r="W243" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="21:23" ht="17.25">
-      <c r="U244" s="43" t="s">
+    <row r="244" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U244" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="V244" s="38" t="s">
+      <c r="V244" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="W244" s="40" t="s">
+      <c r="W244" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="21:23" ht="17.25">
-      <c r="U245" s="43" t="s">
+    <row r="245" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U245" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="V245" s="38" t="s">
+      <c r="V245" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="W245" s="39" t="s">
+      <c r="W245" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="21:23" ht="17.25">
-      <c r="U246" s="42" t="s">
+    <row r="246" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U246" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="V246" s="38" t="s">
+      <c r="V246" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="W246" s="40" t="s">
+      <c r="W246" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="247" spans="21:23" ht="17.25">
-      <c r="U247" s="42" t="s">
+    <row r="247" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U247" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="V247" s="38" t="s">
+      <c r="V247" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="W247" s="39" t="s">
+      <c r="W247" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="248" spans="21:23" ht="17.25">
-      <c r="U248" s="42" t="s">
+    <row r="248" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U248" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="V248" s="38" t="s">
+      <c r="V248" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="W248" s="40" t="s">
+      <c r="W248" s="39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="21:23" ht="17.25">
-      <c r="U249" s="42" t="s">
+    <row r="249" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U249" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="V249" s="38" t="s">
+      <c r="V249" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="W249" s="40" t="s">
+      <c r="W249" s="39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="250" spans="21:23" ht="17.25">
-      <c r="U250" s="42" t="s">
+    <row r="250" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U250" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="V250" s="38" t="s">
+      <c r="V250" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="W250" s="40" t="s">
+      <c r="W250" s="39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="21:23" ht="17.25">
-      <c r="U251" s="42" t="s">
+    <row r="251" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U251" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="V251" s="38" t="s">
+      <c r="V251" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="W251" s="39" t="s">
+      <c r="W251" s="38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="21:23" ht="17.25">
-      <c r="U252" s="42" t="s">
+    <row r="252" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U252" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="V252" s="38" t="s">
+      <c r="V252" s="37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="21:23" ht="17.25">
-      <c r="U253" s="42" t="s">
+    <row r="253" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U253" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="V253" s="38" t="s">
+      <c r="V253" s="37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="254" spans="21:23" ht="17.25">
-      <c r="U254" s="42" t="s">
+    <row r="254" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U254" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="V254" s="38" t="s">
+      <c r="V254" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="255" spans="21:23" ht="17.25">
-      <c r="U255" s="42" t="s">
+    <row r="255" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U255" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="V255" s="38" t="s">
+      <c r="V255" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="256" spans="21:23" ht="17.25">
-      <c r="U256" s="42" t="s">
+    <row r="256" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+      <c r="U256" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="V256" s="41" t="s">
+      <c r="V256" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="22:22" ht="17.25">
-      <c r="V257" s="38" t="s">
+    <row r="257" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V257" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="258" spans="22:22" ht="17.25">
-      <c r="V258" s="38" t="s">
+    <row r="258" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V258" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="22:22" ht="17.25">
-      <c r="V259" s="38" t="s">
+    <row r="259" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V259" s="37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="260" spans="22:22" ht="17.25">
-      <c r="V260" s="38" t="s">
+    <row r="260" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V260" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="261" spans="22:22" ht="17.25">
-      <c r="V261" s="38" t="s">
+    <row r="261" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V261" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="262" spans="22:22" ht="17.25">
-      <c r="V262" s="38" t="s">
+    <row r="262" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V262" s="37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="22:22" ht="17.25">
-      <c r="V263" s="38" t="s">
+    <row r="263" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V263" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="264" spans="22:22" ht="17.25">
-      <c r="V264" s="38" t="s">
+    <row r="264" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V264" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="265" spans="22:22" ht="17.25">
-      <c r="V265" s="38" t="s">
+    <row r="265" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V265" s="37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="22:22" ht="17.25">
-      <c r="V266" s="38" t="s">
+    <row r="266" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V266" s="37" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="267" spans="22:22" ht="17.25">
-      <c r="V267" s="38" t="s">
+    <row r="267" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V267" s="37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="22:22" ht="17.25">
-      <c r="V268" s="38" t="s">
+    <row r="268" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V268" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="269" spans="22:22" ht="17.25">
-      <c r="V269" s="38" t="s">
+    <row r="269" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V269" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="270" spans="22:22" ht="17.25">
-      <c r="V270" s="38" t="s">
+    <row r="270" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V270" s="37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="271" spans="22:22" ht="17.25">
-      <c r="V271" s="38" t="s">
+    <row r="271" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V271" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="272" spans="22:22" ht="17.25">
-      <c r="V272" s="38" t="s">
+    <row r="272" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V272" s="37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="273" spans="22:22" ht="17.25">
-      <c r="V273" s="38" t="s">
+    <row r="273" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V273" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="274" spans="22:22" ht="17.25">
-      <c r="V274" s="38" t="s">
+    <row r="274" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V274" s="37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="275" spans="22:22" ht="17.25">
-      <c r="V275" s="38" t="s">
+    <row r="275" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V275" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="276" spans="22:22" ht="17.25">
-      <c r="V276" s="38" t="s">
+    <row r="276" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V276" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="277" spans="22:22" ht="17.25">
-      <c r="V277" s="38" t="s">
+    <row r="277" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V277" s="37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="278" spans="22:22" ht="17.25">
-      <c r="V278" s="38" t="s">
+    <row r="278" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V278" s="37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="279" spans="22:22" ht="17.25">
-      <c r="V279" s="38" t="s">
+    <row r="279" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V279" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="280" spans="22:22" ht="17.25">
-      <c r="V280" s="38" t="s">
+    <row r="280" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V280" s="37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="281" spans="22:22" ht="17.25">
-      <c r="V281" s="38" t="s">
+    <row r="281" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V281" s="37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="282" spans="22:22" ht="17.25">
-      <c r="V282" s="38" t="s">
+    <row r="282" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V282" s="37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="283" spans="22:22" ht="17.25">
-      <c r="V283" s="38" t="s">
+    <row r="283" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V283" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="284" spans="22:22" ht="17.25">
-      <c r="V284" s="38" t="s">
+    <row r="284" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V284" s="37" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="285" spans="22:22" ht="17.25">
-      <c r="V285" s="38" t="s">
+    <row r="285" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V285" s="37" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="286" spans="22:22" ht="17.25">
-      <c r="V286" s="38" t="s">
+    <row r="286" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V286" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="287" spans="22:22" ht="17.25">
-      <c r="V287" s="38" t="s">
+    <row r="287" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V287" s="37" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="288" spans="22:22" ht="17.25">
-      <c r="V288" s="38" t="s">
+    <row r="288" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V288" s="37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="289" spans="22:22" ht="17.25">
-      <c r="V289" s="38" t="s">
+    <row r="289" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V289" s="37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="22:22" ht="17.25">
-      <c r="V290" s="38" t="s">
+    <row r="290" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V290" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="291" spans="22:22" ht="17.25">
-      <c r="V291" s="38" t="s">
+    <row r="291" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V291" s="37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="292" spans="22:22" ht="17.25">
-      <c r="V292" s="38" t="s">
+    <row r="292" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V292" s="37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="22:22" ht="17.25">
-      <c r="V293" s="38" t="s">
+    <row r="293" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V293" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="294" spans="22:22" ht="17.25">
-      <c r="V294" s="38" t="s">
+    <row r="294" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V294" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="295" spans="22:22" ht="17.25">
-      <c r="V295" s="38" t="s">
+    <row r="295" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V295" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="296" spans="22:22" ht="17.25">
-      <c r="V296" s="38" t="s">
+    <row r="296" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V296" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="297" spans="22:22" ht="17.25">
-      <c r="V297" s="38" t="s">
+    <row r="297" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V297" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="298" spans="22:22" ht="17.25">
-      <c r="V298" s="38" t="s">
+    <row r="298" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V298" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="299" spans="22:22" ht="17.25">
-      <c r="V299" s="38" t="s">
+    <row r="299" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V299" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="300" spans="22:22" ht="17.25">
-      <c r="V300" s="38" t="s">
+    <row r="300" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V300" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="301" spans="22:22" ht="17.25">
-      <c r="V301" s="38" t="s">
+    <row r="301" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V301" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="302" spans="22:22" ht="17.25">
-      <c r="V302" s="38" t="s">
+    <row r="302" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V302" s="37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="303" spans="22:22" ht="17.25">
-      <c r="V303" s="38" t="s">
+    <row r="303" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V303" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="304" spans="22:22" ht="17.25">
-      <c r="V304" s="38" t="s">
+    <row r="304" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V304" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="305" spans="22:22" ht="17.25">
-      <c r="V305" s="38" t="s">
+    <row r="305" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V305" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="306" spans="22:22" ht="17.25">
-      <c r="V306" s="38" t="s">
+    <row r="306" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V306" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="307" spans="22:22" ht="17.25">
-      <c r="V307" s="38" t="s">
+    <row r="307" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V307" s="37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="308" spans="22:22" ht="17.25">
-      <c r="V308" s="38" t="s">
+    <row r="308" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V308" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="309" spans="22:22" ht="17.25">
-      <c r="V309" s="38" t="s">
+    <row r="309" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V309" s="37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="310" spans="22:22" ht="17.25">
-      <c r="V310" s="38" t="s">
+    <row r="310" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V310" s="37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="311" spans="22:22" ht="17.25">
-      <c r="V311" s="38" t="s">
+    <row r="311" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V311" s="37" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="312" spans="22:22" ht="17.25">
-      <c r="V312" s="38" t="s">
+    <row r="312" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V312" s="37" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="22:22" ht="17.25">
-      <c r="V313" s="38" t="s">
+    <row r="313" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V313" s="37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="314" spans="22:22" ht="17.25">
-      <c r="V314" s="38" t="s">
+    <row r="314" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V314" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="315" spans="22:22" ht="17.25">
-      <c r="V315" s="38" t="s">
+    <row r="315" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V315" s="37" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="316" spans="22:22" ht="17.25">
-      <c r="V316" s="38" t="s">
+    <row r="316" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V316" s="37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="317" spans="22:22" ht="17.25">
-      <c r="V317" s="38" t="s">
+    <row r="317" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V317" s="37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="318" spans="22:22" ht="17.25">
-      <c r="V318" s="38" t="s">
+    <row r="318" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V318" s="37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="319" spans="22:22" ht="17.25">
-      <c r="V319" s="38" t="s">
+    <row r="319" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V319" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="320" spans="22:22" ht="17.25">
-      <c r="V320" s="38" t="s">
+    <row r="320" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V320" s="37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="321" spans="22:22" ht="17.25">
-      <c r="V321" s="38" t="s">
+    <row r="321" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V321" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="322" spans="22:22" ht="17.25">
-      <c r="V322" s="38" t="s">
+    <row r="322" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V322" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="323" spans="22:22" ht="17.25">
-      <c r="V323" s="38" t="s">
+    <row r="323" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V323" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="324" spans="22:22" ht="17.25">
-      <c r="V324" s="38" t="s">
+    <row r="324" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V324" s="37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="325" spans="22:22" ht="17.25">
-      <c r="V325" s="38" t="s">
+    <row r="325" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V325" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="326" spans="22:22" ht="17.25">
-      <c r="V326" s="38" t="s">
+    <row r="326" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="V326" s="37" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="82">
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A123:E123"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
@@ -6352,72 +6432,30 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione a Unidade" sqref="C14:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione a Unidade" sqref="C14:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$U$228:$U$256</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione o Departamento" sqref="C15:F15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione o Departamento" sqref="C15:F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$V$228:$V$326</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecione uma das opções" error="Clique em Cancelar e Selecione uma das Opções" sqref="C18:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecione uma das opções" error="Clique em Cancelar e Selecione uma das Opções" sqref="C18:F18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$W$228:$W$251</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" sqref="C19:F19 C21:F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" sqref="C19:F19 C21:F21" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$T$228:$T$231</formula1>
     </dataValidation>
   </dataValidations>
@@ -6430,650 +6468,687 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="91.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="8" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="8" style="21"/>
+    <col min="1" max="1" width="91.26953125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="8" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="167" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.2" customHeight="1">
-      <c r="A2" s="190"/>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="172"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <f>'CPPD 01-18'!C23</f>
         <v>42500</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="51">
         <f>'CPPD 01-18'!F23</f>
         <v>45596</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="192" t="s">
+    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="166" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="191" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="188" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="170" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="193" t="s">
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="193" t="s">
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="171"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="187" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="165"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="159" t="s">
         <v>230</v>
       </c>
       <c r="B12" s="160"/>
       <c r="C12" s="161"/>
-      <c r="D12" s="63"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="159" t="s">
         <v>231</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="161"/>
-      <c r="D13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.350000000000001" customHeight="1">
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="153"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="159" t="s">
         <v>232</v>
       </c>
       <c r="B15" s="160"/>
       <c r="C15" s="161"/>
-      <c r="D15" s="63"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.350000000000001" customHeight="1">
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="159" t="s">
         <v>233</v>
       </c>
       <c r="B16" s="160"/>
       <c r="C16" s="161"/>
-      <c r="D16" s="63"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A17" s="178"/>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="180"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="156"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="162" t="s">
         <v>234</v>
       </c>
       <c r="B18" s="163"/>
       <c r="C18" s="164"/>
-      <c r="D18" s="64"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="162" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="163"/>
       <c r="C19" s="164"/>
-      <c r="D19" s="64"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="167"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="162" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="163"/>
       <c r="C21" s="164"/>
-      <c r="D21" s="57" t="e">
+      <c r="D21" s="56" t="e">
         <f>(D13-B3)/(D13-D12)*D18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="162" t="s">
         <v>237</v>
       </c>
       <c r="B22" s="163"/>
       <c r="C22" s="164"/>
-      <c r="D22" s="57" t="e">
+      <c r="D22" s="56" t="e">
         <f>(D3-D15)/(D16-D15)*D19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A23" s="166"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="187" t="s">
+    <row r="23" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="154"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="159" t="s">
         <v>230</v>
       </c>
       <c r="B25" s="160"/>
       <c r="C25" s="161"/>
-      <c r="D25" s="63"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="159" t="s">
         <v>231</v>
       </c>
       <c r="B26" s="160"/>
       <c r="C26" s="161"/>
-      <c r="D26" s="63"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="159" t="s">
         <v>232</v>
       </c>
       <c r="B28" s="160"/>
       <c r="C28" s="161"/>
-      <c r="D28" s="63"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="159" t="s">
         <v>233</v>
       </c>
       <c r="B29" s="160"/>
       <c r="C29" s="161"/>
-      <c r="D29" s="63"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A30" s="178"/>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="180"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="158"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="162" t="s">
         <v>238</v>
       </c>
       <c r="B31" s="163"/>
       <c r="C31" s="164"/>
-      <c r="D31" s="64"/>
-    </row>
-    <row r="32" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D31" s="62"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="162" t="s">
         <v>239</v>
       </c>
       <c r="B32" s="163"/>
       <c r="C32" s="164"/>
-      <c r="D32" s="64"/>
-    </row>
-    <row r="33" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A33" s="165"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="162" t="s">
         <v>240</v>
       </c>
       <c r="B34" s="163"/>
       <c r="C34" s="164"/>
-      <c r="D34" s="57" t="e">
+      <c r="D34" s="56" t="e">
         <f>(D26-B3)/(D26-D25)*D31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.350000000000001" customHeight="1">
+    <row r="35" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="162" t="s">
         <v>241</v>
       </c>
       <c r="B35" s="163"/>
       <c r="C35" s="164"/>
-      <c r="D35" s="57" t="e">
+      <c r="D35" s="56" t="e">
         <f>(D3-D28)/(D29-D28)*D32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A36" s="171"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A37" s="187" t="s">
+    <row r="36" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="165"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="159" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="160"/>
       <c r="C38" s="161"/>
-      <c r="D38" s="63"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="159" t="s">
         <v>231</v>
       </c>
       <c r="B39" s="160"/>
       <c r="C39" s="161"/>
-      <c r="D39" s="63"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="165"/>
-      <c r="B40" s="166"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="167"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="153"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="155"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="159" t="s">
         <v>232</v>
       </c>
       <c r="B41" s="160"/>
       <c r="C41" s="161"/>
-      <c r="D41" s="63"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="159" t="s">
         <v>233</v>
       </c>
       <c r="B42" s="160"/>
       <c r="C42" s="161"/>
-      <c r="D42" s="63"/>
-    </row>
-    <row r="43" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A43" s="178"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="156"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="158"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="162" t="s">
         <v>242</v>
       </c>
       <c r="B44" s="163"/>
       <c r="C44" s="164"/>
-      <c r="D44" s="64"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D44" s="62"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="162" t="s">
         <v>243</v>
       </c>
       <c r="B45" s="163"/>
       <c r="C45" s="164"/>
-      <c r="D45" s="64"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="165"/>
-      <c r="B46" s="166"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="167"/>
-    </row>
-    <row r="47" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="153"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="155"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="162" t="s">
         <v>244</v>
       </c>
       <c r="B47" s="163"/>
       <c r="C47" s="164"/>
-      <c r="D47" s="57" t="e">
+      <c r="D47" s="56" t="e">
         <f>(D39-B3)/(D39-D38)*D44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.350000000000001" customHeight="1">
+    <row r="48" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="162" t="s">
         <v>245</v>
       </c>
       <c r="B48" s="163"/>
       <c r="C48" s="164"/>
-      <c r="D48" s="57" t="e">
+      <c r="D48" s="56" t="e">
         <f>(D3-D41)/(D42-D41)*D45</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A49" s="171"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-    </row>
-    <row r="50" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A50" s="168" t="s">
+    <row r="49" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="165"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="170"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="B50" s="183"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="184"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="159" t="s">
         <v>230</v>
       </c>
       <c r="B51" s="160"/>
       <c r="C51" s="161"/>
-      <c r="D51" s="63"/>
-    </row>
-    <row r="52" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="159" t="s">
         <v>231</v>
       </c>
       <c r="B52" s="160"/>
       <c r="C52" s="161"/>
-      <c r="D52" s="63"/>
-    </row>
-    <row r="53" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A53" s="165"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="167"/>
-    </row>
-    <row r="54" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="153"/>
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="155"/>
+    </row>
+    <row r="54" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="159" t="s">
         <v>232</v>
       </c>
       <c r="B54" s="160"/>
       <c r="C54" s="161"/>
-      <c r="D54" s="63"/>
-    </row>
-    <row r="55" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D54" s="61"/>
+    </row>
+    <row r="55" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="159" t="s">
         <v>233</v>
       </c>
       <c r="B55" s="160"/>
       <c r="C55" s="161"/>
-      <c r="D55" s="63"/>
-    </row>
-    <row r="56" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A56" s="178"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="180"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="156"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="158"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="162" t="s">
         <v>246</v>
       </c>
       <c r="B57" s="163"/>
       <c r="C57" s="164"/>
-      <c r="D57" s="64"/>
-    </row>
-    <row r="58" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D57" s="62"/>
+    </row>
+    <row r="58" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="162" t="s">
         <v>247</v>
       </c>
       <c r="B58" s="163"/>
       <c r="C58" s="164"/>
-      <c r="D58" s="64"/>
-    </row>
-    <row r="59" spans="1:4" ht="16.350000000000001" customHeight="1">
-      <c r="A59" s="165"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
-      <c r="D59" s="167"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="D58" s="62"/>
+    </row>
+    <row r="59" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="153"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="155"/>
+    </row>
+    <row r="60" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="162" t="s">
         <v>248</v>
       </c>
       <c r="B60" s="163"/>
       <c r="C60" s="164"/>
-      <c r="D60" s="57" t="e">
+      <c r="D60" s="56" t="e">
         <f>(D52-B3)/(D52-D51)*D57</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="162" t="s">
         <v>249</v>
       </c>
       <c r="B61" s="163"/>
       <c r="C61" s="164"/>
-      <c r="D61" s="57" t="e">
+      <c r="D61" s="56" t="e">
         <f>(D3-D54)/(D55-D54)*D58</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="181"/>
-      <c r="B62" s="182"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
-    </row>
-    <row r="63" spans="1:4" ht="18.75">
-      <c r="A63" s="183" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="173"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="174"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="183"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="183"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" s="175"/>
+      <c r="C63" s="175"/>
+      <c r="D63" s="175"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="159" t="s">
         <v>230</v>
       </c>
       <c r="B64" s="160"/>
       <c r="C64" s="161"/>
-      <c r="D64" s="63"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="159" t="s">
         <v>231</v>
       </c>
       <c r="B65" s="160"/>
       <c r="C65" s="161"/>
-      <c r="D65" s="63"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="172"/>
-      <c r="B66" s="173"/>
-      <c r="C66" s="173"/>
-      <c r="D66" s="174"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="176"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="178"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="159" t="s">
         <v>232</v>
       </c>
       <c r="B67" s="160"/>
       <c r="C67" s="161"/>
-      <c r="D67" s="63"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="159" t="s">
         <v>233</v>
       </c>
       <c r="B68" s="160"/>
       <c r="C68" s="161"/>
-      <c r="D68" s="63"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="175"/>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176"/>
-      <c r="D69" s="177"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="179"/>
+      <c r="B69" s="180"/>
+      <c r="C69" s="180"/>
+      <c r="D69" s="181"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="162" t="s">
         <v>250</v>
       </c>
       <c r="B70" s="163"/>
       <c r="C70" s="164"/>
-      <c r="D70" s="64"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="62"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="162" t="s">
         <v>251</v>
       </c>
       <c r="B71" s="163"/>
       <c r="C71" s="164"/>
-      <c r="D71" s="64"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="172"/>
-      <c r="B72" s="173"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="174"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D71" s="62"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="176"/>
+      <c r="B72" s="177"/>
+      <c r="C72" s="177"/>
+      <c r="D72" s="178"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="162" t="s">
         <v>252</v>
       </c>
       <c r="B73" s="163"/>
       <c r="C73" s="164"/>
-      <c r="D73" s="58" t="e">
+      <c r="D73" s="57" t="e">
         <f>(D65-B3)/(D65-D64)*D70</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="162" t="s">
         <v>253</v>
       </c>
       <c r="B74" s="163"/>
       <c r="C74" s="164"/>
-      <c r="D74" s="58" t="e">
+      <c r="D74" s="57" t="e">
         <f>(D3-D67)/(D68-D67)*D71</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-    </row>
-    <row r="80" spans="1:4" ht="16.350000000000001" customHeight="1"/>
-    <row r="85" ht="16.350000000000001" customHeight="1"/>
-    <row r="86" ht="16.350000000000001" customHeight="1"/>
-    <row r="87" ht="16.350000000000001" customHeight="1"/>
-    <row r="88" ht="16.350000000000001" customHeight="1"/>
-    <row r="89" ht="16.350000000000001" customHeight="1"/>
-    <row r="92" ht="16.350000000000001" customHeight="1"/>
-    <row r="98" ht="29.85" customHeight="1"/>
-    <row r="99" ht="29.85" customHeight="1"/>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="58"/>
+      <c r="D75" s="59"/>
+    </row>
+    <row r="80" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="73">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A36:D36"/>
@@ -7090,54 +7165,15 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7146,7 +7182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -7154,89 +7190,89 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="82" customWidth="1"/>
-    <col min="2" max="7" width="16.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="21"/>
+    <col min="1" max="1" width="16.7265625" style="76" customWidth="1"/>
+    <col min="2" max="7" width="16.7265625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.2" customHeight="1">
-      <c r="A1" s="187" t="s">
+    <row r="1" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.2" customHeight="1">
-      <c r="A2" s="200" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="81"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="197" t="s">
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="188" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="199"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="194" t="s">
+      <c r="B4" s="189"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="190"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="64"/>
+      <c r="B5" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="194" t="s">
+      <c r="C5" s="186"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="195"/>
-      <c r="G5" s="196"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="77" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="13">
@@ -7258,8 +7294,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="77" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="13">
@@ -7281,8 +7317,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A9" s="77" t="s">
+    <row r="9" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="13">
@@ -7304,8 +7340,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A10" s="77" t="s">
+    <row r="10" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="13">
@@ -7327,61 +7363,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A11" s="69"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="69"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="194" t="s">
+    <row r="11" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="53"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="53"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="185" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="196"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="194" t="s">
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="187"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="64"/>
+      <c r="B14" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="195"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="194" t="s">
+      <c r="C14" s="186"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="195"/>
-      <c r="G14" s="196"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A15" s="79" t="s">
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="13">
@@ -7403,8 +7439,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="72" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="13">
@@ -7426,8 +7462,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A18" s="77" t="s">
+    <row r="18" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="72" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="13">
@@ -7449,61 +7485,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.85" customHeight="1"/>
-    <row r="20" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="22" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="26" spans="1:7" ht="29.85" customHeight="1"/>
-    <row r="28" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="33" ht="16.350000000000001" customHeight="1"/>
-    <row r="36" ht="16.350000000000001" customHeight="1"/>
-    <row r="37" ht="29.85" customHeight="1"/>
-    <row r="40" ht="29.85" customHeight="1"/>
-    <row r="41" ht="16.350000000000001" customHeight="1"/>
-    <row r="42" ht="16.350000000000001" customHeight="1"/>
-    <row r="43" ht="16.350000000000001" customHeight="1"/>
-    <row r="44" ht="16.350000000000001" customHeight="1"/>
-    <row r="45" ht="16.350000000000001" customHeight="1"/>
-    <row r="46" ht="16.350000000000001" customHeight="1"/>
-    <row r="47" ht="16.350000000000001" customHeight="1"/>
-    <row r="48" ht="16.350000000000001" customHeight="1"/>
-    <row r="49" ht="16.350000000000001" customHeight="1"/>
-    <row r="50" ht="16.350000000000001" customHeight="1"/>
-    <row r="51" ht="16.350000000000001" customHeight="1"/>
-    <row r="52" ht="16.350000000000001" customHeight="1"/>
-    <row r="53" ht="16.350000000000001" customHeight="1"/>
-    <row r="54" ht="16.350000000000001" customHeight="1"/>
-    <row r="55" ht="16.350000000000001" customHeight="1"/>
-    <row r="56" ht="16.350000000000001" customHeight="1"/>
-    <row r="57" ht="16.350000000000001" customHeight="1"/>
-    <row r="58" ht="16.350000000000001" customHeight="1"/>
-    <row r="59" ht="16.350000000000001" customHeight="1"/>
-    <row r="60" ht="16.350000000000001" customHeight="1"/>
-    <row r="61" ht="16.350000000000001" customHeight="1"/>
-    <row r="63" ht="29.85" customHeight="1"/>
-    <row r="66" ht="29.85" customHeight="1"/>
-    <row r="67" ht="29.85" customHeight="1"/>
-    <row r="69" ht="70.150000000000006" customHeight="1"/>
-    <row r="70" ht="70.150000000000006" customHeight="1"/>
-    <row r="71" ht="56.65" customHeight="1"/>
-    <row r="72" ht="43.35" customHeight="1"/>
-    <row r="73" ht="70.150000000000006" customHeight="1"/>
-    <row r="74" ht="43.35" customHeight="1"/>
-    <row r="75" ht="29.85" customHeight="1"/>
-    <row r="79" ht="16.350000000000001" customHeight="1"/>
-    <row r="84" ht="16.350000000000001" customHeight="1"/>
-    <row r="89" ht="16.350000000000001" customHeight="1"/>
-    <row r="90" ht="16.350000000000001" customHeight="1"/>
-    <row r="91" ht="16.350000000000001" customHeight="1"/>
-    <row r="92" ht="16.350000000000001" customHeight="1"/>
-    <row r="93" ht="16.350000000000001" customHeight="1"/>
-    <row r="96" ht="16.350000000000001" customHeight="1"/>
-    <row r="102" ht="29.85" customHeight="1"/>
-    <row r="103" ht="29.85" customHeight="1"/>
+    <row r="19" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="56.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="8">
@@ -7523,7 +7559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -7531,136 +7567,136 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="21"/>
+    <col min="1" max="7" width="16.7265625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="20" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="202" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.2" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.2" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="203" t="s">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="84"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="203" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="65">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="63">
         <f>ROUND(('CPPD 01-18'!F23-'CPPD 01-18'!C23)/31,0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="H6" s="66"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="199"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="104" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64"/>
+      <c r="B8" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="194" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="195"/>
-      <c r="G8" s="196"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="F8" s="186"/>
+      <c r="G8" s="187"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.350000000000001" customHeight="1">
-      <c r="A10" s="77" t="s">
+    <row r="10" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <f>(Pontuações!B7-Pontuações!D7)*($E$5-$E$4)/$E$5+Pontuações!D7</f>
         <v>70</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D10" s="13">
         <v>10</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <f>(Pontuações!E7-Pontuações!G7)*($E$5-$E$4)/$E$5+Pontuações!G7</f>
         <v>42</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7668,26 +7704,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.350000000000001" customHeight="1">
-      <c r="A11" s="77" t="s">
+    <row r="11" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <f>(Pontuações!B8-Pontuações!D8)*($E$5-$E$4)/$E$5+Pontuações!D8</f>
         <v>70</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D11" s="13">
         <v>15</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f>(Pontuações!E8-Pontuações!G8)*($E$5-$E$4)/$E$5+Pontuações!G8</f>
         <v>42</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7695,26 +7731,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="77" t="s">
+    <row r="12" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <f>(Pontuações!B9-Pontuações!D9)*($E$5-$E$4)/$E$5+Pontuações!D9</f>
         <v>70</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D12" s="13">
         <v>20</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <f>(Pontuações!E9-Pontuações!G9)*($E$5-$E$4)/$E$5+Pontuações!G9</f>
         <v>44</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7722,26 +7758,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <f>(Pontuações!B10-Pontuações!D10)*($E$5-$E$4)/$E$5+Pontuações!D10</f>
         <v>70</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D13" s="13">
         <v>25</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f>(Pontuações!E10-Pontuações!G10)*($E$5-$E$4)/$E$5+Pontuações!G10</f>
         <v>47</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7749,79 +7785,79 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.350000000000001" customHeight="1">
-      <c r="A14" s="69"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="69"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="194" t="s">
+    <row r="14" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="53"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="194" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="194" t="s">
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="195"/>
-      <c r="G17" s="196"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="79" t="s">
+      <c r="F17" s="186"/>
+      <c r="G17" s="187"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <f>(Pontuações!B16-Pontuações!D16)*($E$5-$E$4)/$E$5+Pontuações!D16</f>
         <v>120</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D19" s="13">
         <v>60</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f>(Pontuações!E16-Pontuações!G16)*($E$5-$E$4)/$E$5+Pontuações!G16</f>
         <v>72</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7829,26 +7865,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="77" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <f>(Pontuações!B17-Pontuações!D17)*($E$5-$E$4)/$E$5+Pontuações!D17</f>
         <v>150</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D20" s="13">
         <v>80</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <f>(Pontuações!E17-Pontuações!G17)*($E$5-$E$4)/$E$5+Pontuações!G17</f>
         <v>90</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7856,26 +7892,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <f>(Pontuações!B18-Pontuações!D18)*($E$5-$E$4)/$E$5+Pontuações!D18</f>
         <v>70</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
       <c r="D21" s="13">
         <v>25</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <f>(Pontuações!E18-Pontuações!G18)*($E$5-$E$4)/$E$5+Pontuações!G18</f>
         <v>47</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
@@ -7883,69 +7919,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A24" s="135" t="s">
+    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-    </row>
-    <row r="27" spans="1:7" ht="29.85" customHeight="1"/>
-    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="33" ht="16.350000000000001" customHeight="1"/>
-    <row r="34" ht="16.350000000000001" customHeight="1"/>
-    <row r="37" ht="16.350000000000001" customHeight="1"/>
-    <row r="38" ht="29.85" customHeight="1"/>
-    <row r="41" ht="29.85" customHeight="1"/>
-    <row r="42" ht="16.350000000000001" customHeight="1"/>
-    <row r="43" ht="16.350000000000001" customHeight="1"/>
-    <row r="44" ht="16.350000000000001" customHeight="1"/>
-    <row r="45" ht="16.350000000000001" customHeight="1"/>
-    <row r="46" ht="16.350000000000001" customHeight="1"/>
-    <row r="47" ht="16.350000000000001" customHeight="1"/>
-    <row r="48" ht="16.350000000000001" customHeight="1"/>
-    <row r="49" ht="16.350000000000001" customHeight="1"/>
-    <row r="50" ht="16.350000000000001" customHeight="1"/>
-    <row r="51" ht="16.350000000000001" customHeight="1"/>
-    <row r="52" ht="16.350000000000001" customHeight="1"/>
-    <row r="53" ht="16.350000000000001" customHeight="1"/>
-    <row r="54" ht="16.350000000000001" customHeight="1"/>
-    <row r="55" ht="16.350000000000001" customHeight="1"/>
-    <row r="56" ht="16.350000000000001" customHeight="1"/>
-    <row r="57" ht="16.350000000000001" customHeight="1"/>
-    <row r="58" ht="16.350000000000001" customHeight="1"/>
-    <row r="59" ht="16.350000000000001" customHeight="1"/>
-    <row r="60" ht="16.350000000000001" customHeight="1"/>
-    <row r="61" ht="16.350000000000001" customHeight="1"/>
-    <row r="62" ht="16.350000000000001" customHeight="1"/>
-    <row r="64" ht="29.85" customHeight="1"/>
-    <row r="67" ht="29.85" customHeight="1"/>
-    <row r="68" ht="29.85" customHeight="1"/>
-    <row r="70" ht="70.150000000000006" customHeight="1"/>
-    <row r="71" ht="70.150000000000006" customHeight="1"/>
-    <row r="72" ht="56.65" customHeight="1"/>
-    <row r="73" ht="43.35" customHeight="1"/>
-    <row r="74" ht="70.150000000000006" customHeight="1"/>
-    <row r="75" ht="43.35" customHeight="1"/>
-    <row r="76" ht="29.85" customHeight="1"/>
-    <row r="80" ht="16.350000000000001" customHeight="1"/>
-    <row r="85" ht="16.350000000000001" customHeight="1"/>
-    <row r="90" ht="16.350000000000001" customHeight="1"/>
-    <row r="91" ht="16.350000000000001" customHeight="1"/>
-    <row r="92" ht="16.350000000000001" customHeight="1"/>
-    <row r="93" ht="16.350000000000001" customHeight="1"/>
-    <row r="94" ht="16.350000000000001" customHeight="1"/>
-    <row r="97" ht="16.350000000000001" customHeight="1"/>
-    <row r="103" ht="29.85" customHeight="1"/>
-    <row r="104" ht="29.85" customHeight="1"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+    </row>
+    <row r="27" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="56.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
@@ -7968,7 +8004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:G104"/>
   <sheetViews>
@@ -7976,433 +8012,433 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="3" customWidth="1"/>
+    <col min="1" max="7" width="16.7265625" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="186"/>
-    </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="192" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-    </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-    </row>
-    <row r="4" spans="1:7" s="21" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="162" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="163"/>
       <c r="C4" s="163"/>
       <c r="D4" s="164"/>
-      <c r="E4" s="70"/>
-    </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" ht="15">
+      <c r="E4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="162" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="163"/>
       <c r="C5" s="163"/>
       <c r="D5" s="164"/>
-      <c r="E5" s="65">
+      <c r="E5" s="63">
         <f>ROUND(('CPPD 01-18'!F23-'CPPD 01-18'!C23)/31,0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" ht="15"/>
-    <row r="7" spans="1:7" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="199"/>
-    </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="104" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+    </row>
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64"/>
+      <c r="B8" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A10" s="77" t="s">
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="65">
         <f>Pontuações!B7*($E$5-$E$4)/$E$5</f>
         <v>70</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <f>Pontuações!D7*($E$5-$E$4)/$E$5</f>
         <v>10</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="65">
         <f>Pontuações!E7*($E$5-$E$4)/$E$5</f>
         <v>42</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="65">
         <f>Pontuações!G7*($E$5-$E$4)/$E$5</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A11" s="77" t="s">
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="65">
         <f>Pontuações!B8*($E$5-$E$4)/$E$5</f>
         <v>70</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="65">
         <f>Pontuações!D8*($E$5-$E$4)/$E$5</f>
         <v>15</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="65">
         <f>Pontuações!E8*($E$5-$E$4)/$E$5</f>
         <v>42</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="65">
         <f>Pontuações!G8*($E$5-$E$4)/$E$5</f>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="77" t="s">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="65">
         <f>Pontuações!B9*($E$5-$E$4)/$E$5</f>
         <v>70</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="65">
         <f>Pontuações!D9*($E$5-$E$4)/$E$5</f>
         <v>20</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="65">
         <f>Pontuações!E9*($E$5-$E$4)/$E$5</f>
         <v>44</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="65">
         <f>Pontuações!G9*($E$5-$E$4)/$E$5</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="65">
         <f>Pontuações!B10*($E$5-$E$4)/$E$5</f>
         <v>70</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="65">
         <f>Pontuações!D10*($E$5-$E$4)/$E$5</f>
         <v>25</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="65">
         <f>Pontuações!E10*($E$5-$E$4)/$E$5</f>
         <v>47</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="65">
         <f>Pontuações!G10*($E$5-$E$4)/$E$5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A14" s="69"/>
-    </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" ht="15">
-      <c r="A15" s="69"/>
-    </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A16" s="194" t="s">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="53"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="104" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104" t="s">
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="15">
-      <c r="A18" s="79" t="s">
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="68">
+      <c r="B19" s="65">
         <f>Pontuações!B16*($E$5-$E$4)/$E$5</f>
         <v>120</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="65">
         <f>Pontuações!D16*($E$5-$E$4)/$E$5</f>
         <v>60</v>
       </c>
-      <c r="E19" s="68">
+      <c r="E19" s="65">
         <f>Pontuações!E16*($E$5-$E$4)/$E$5</f>
         <v>72</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="65">
         <f>Pontuações!G16*($E$5-$E$4)/$E$5</f>
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" ht="15">
-      <c r="A20" s="77" t="s">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="65">
         <f>Pontuações!B17*($E$5-$E$4)/$E$5</f>
         <v>150</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="65">
         <f>Pontuações!D17*($E$5-$E$4)/$E$5</f>
         <v>80</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="65">
         <f>Pontuações!E17*($E$5-$E$4)/$E$5</f>
         <v>90</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="65">
         <f>Pontuações!G17*($E$5-$E$4)/$E$5</f>
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="68">
+      <c r="B21" s="65">
         <f>Pontuações!B18*($E$5-$E$4)/$E$5</f>
         <v>70</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="65">
         <f>Pontuações!D18*($E$5-$E$4)/$E$5</f>
         <v>25</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="65">
         <f>Pontuações!E18*($E$5-$E$4)/$E$5</f>
         <v>47</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="65">
         <f>Pontuações!G18*($E$5-$E$4)/$E$5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="24" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A24" s="135" t="s">
+    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-    </row>
-    <row r="27" spans="1:7" ht="29.85" customHeight="1"/>
-    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
-    <row r="33" ht="16.350000000000001" customHeight="1"/>
-    <row r="34" ht="16.350000000000001" customHeight="1"/>
-    <row r="37" ht="16.350000000000001" customHeight="1"/>
-    <row r="38" ht="29.85" customHeight="1"/>
-    <row r="41" ht="29.85" customHeight="1"/>
-    <row r="42" ht="16.350000000000001" customHeight="1"/>
-    <row r="43" ht="16.350000000000001" customHeight="1"/>
-    <row r="44" ht="16.350000000000001" customHeight="1"/>
-    <row r="45" ht="16.350000000000001" customHeight="1"/>
-    <row r="46" ht="16.350000000000001" customHeight="1"/>
-    <row r="47" ht="16.350000000000001" customHeight="1"/>
-    <row r="48" ht="16.350000000000001" customHeight="1"/>
-    <row r="49" ht="16.350000000000001" customHeight="1"/>
-    <row r="50" ht="16.350000000000001" customHeight="1"/>
-    <row r="51" ht="16.350000000000001" customHeight="1"/>
-    <row r="52" ht="16.350000000000001" customHeight="1"/>
-    <row r="53" ht="16.350000000000001" customHeight="1"/>
-    <row r="54" ht="16.350000000000001" customHeight="1"/>
-    <row r="55" ht="16.350000000000001" customHeight="1"/>
-    <row r="56" ht="16.350000000000001" customHeight="1"/>
-    <row r="57" ht="16.350000000000001" customHeight="1"/>
-    <row r="58" ht="16.350000000000001" customHeight="1"/>
-    <row r="59" ht="16.350000000000001" customHeight="1"/>
-    <row r="60" ht="16.350000000000001" customHeight="1"/>
-    <row r="61" ht="16.350000000000001" customHeight="1"/>
-    <row r="62" ht="16.350000000000001" customHeight="1"/>
-    <row r="64" ht="29.85" customHeight="1"/>
-    <row r="67" ht="29.85" customHeight="1"/>
-    <row r="68" ht="29.85" customHeight="1"/>
-    <row r="70" ht="70.150000000000006" customHeight="1"/>
-    <row r="71" ht="70.150000000000006" customHeight="1"/>
-    <row r="72" ht="56.65" customHeight="1"/>
-    <row r="73" ht="43.35" customHeight="1"/>
-    <row r="74" ht="70.150000000000006" customHeight="1"/>
-    <row r="75" ht="43.35" customHeight="1"/>
-    <row r="76" ht="29.85" customHeight="1"/>
-    <row r="80" ht="16.350000000000001" customHeight="1"/>
-    <row r="85" ht="16.350000000000001" customHeight="1"/>
-    <row r="90" ht="16.350000000000001" customHeight="1"/>
-    <row r="91" ht="16.350000000000001" customHeight="1"/>
-    <row r="92" ht="16.350000000000001" customHeight="1"/>
-    <row r="93" ht="16.350000000000001" customHeight="1"/>
-    <row r="94" ht="16.350000000000001" customHeight="1"/>
-    <row r="97" ht="16.350000000000001" customHeight="1"/>
-    <row r="103" ht="29.85" customHeight="1"/>
-    <row r="104" ht="29.85" customHeight="1"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+    </row>
+    <row r="27" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="56.65" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="43.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="43.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
@@ -8425,432 +8461,424 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="8" style="40" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8" style="40"/>
+    <col min="1" max="7" width="16.7265625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="8" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="186"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="201" t="s">
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="203" t="s">
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="203" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="71">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="67">
         <f>ROUND(('CPPD 01-18'!F23-'CPPD 01-18'!C23)/31,0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.85" customHeight="1"/>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="197" t="s">
+    <row r="6" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="199"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="104" t="s">
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
+      <c r="B8" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A10" s="77" t="s">
+    <row r="10" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="69">
         <f>Pontuações!B7</f>
         <v>70</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="65">
         <f>Pontuações!D7*($E$5-$E$4)/$E$5</f>
         <v>10</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="69">
         <f>Pontuações!E7</f>
         <v>42</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="65">
         <f>Pontuações!G7*($E$5-$E$4)/$E$5</f>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A11" s="77" t="s">
+    <row r="11" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="69">
         <f>Pontuações!B8</f>
         <v>70</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="65">
         <f>Pontuações!D8*($E$5-$E$4)/$E$5</f>
         <v>15</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="69">
         <f>Pontuações!E8</f>
         <v>42</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="65">
         <f>Pontuações!G8*($E$5-$E$4)/$E$5</f>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="77" t="s">
+    <row r="12" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="69">
         <f>Pontuações!B9</f>
         <v>70</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="65">
         <f>Pontuações!D9*($E$5-$E$4)/$E$5</f>
         <v>20</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="69">
         <f>Pontuações!E9</f>
         <v>44</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="65">
         <f>Pontuações!G9*($E$5-$E$4)/$E$5</f>
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="69">
         <f>Pontuações!B10</f>
         <v>70</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="65">
         <f>Pontuações!D10*($E$5-$E$4)/$E$5</f>
         <v>25</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="69">
         <f>Pontuações!E10</f>
         <v>47</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="65">
         <f>Pontuações!G10*($E$5-$E$4)/$E$5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A14" s="69"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="69"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A16" s="194" t="s">
+    <row r="14" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="53"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="196"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="104" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104" t="s">
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="79" t="s">
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="74" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="69">
         <f>Pontuações!B16</f>
         <v>120</v>
       </c>
-      <c r="C19" s="68">
+      <c r="C19" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="65">
         <f>Pontuações!D16*($E$5-$E$4)/$E$5</f>
         <v>60</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="69">
         <f>Pontuações!E16</f>
         <v>72</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G19" s="68">
+      <c r="G19" s="65">
         <f>Pontuações!G16*($E$5-$E$4)/$E$5</f>
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="77" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="69">
         <f>Pontuações!B17</f>
         <v>150</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="65">
         <f>Pontuações!D17*($E$5-$E$4)/$E$5</f>
         <v>80</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="69">
         <f>Pontuações!E17</f>
         <v>90</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="65">
         <f>Pontuações!G17*($E$5-$E$4)/$E$5</f>
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="69">
         <f>Pontuações!B18</f>
         <v>70</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="65">
         <f>Pontuações!D18*($E$5-$E$4)/$E$5</f>
         <v>25</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="69">
         <f>Pontuações!E18</f>
         <v>47</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="65">
         <f>32*($E$5-$E$4)/$E$5</f>
         <v>32</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="65">
         <f>Pontuações!G18*($E$5-$E$4)/$E$5</f>
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.350000000000001" customHeight="1"/>
-    <row r="28" spans="1:10" ht="16.350000000000001" customHeight="1"/>
-    <row r="29" spans="1:10" ht="16.350000000000001" customHeight="1"/>
-    <row r="30" spans="1:10" ht="16.350000000000001" customHeight="1"/>
-    <row r="31" spans="1:10" ht="16.350000000000001" customHeight="1"/>
-    <row r="32" spans="1:10" ht="16.350000000000001" customHeight="1"/>
-    <row r="33" ht="16.350000000000001" customHeight="1"/>
-    <row r="36" ht="16.350000000000001" customHeight="1"/>
-    <row r="37" ht="29.85" customHeight="1"/>
-    <row r="40" ht="29.85" customHeight="1"/>
-    <row r="41" ht="16.350000000000001" customHeight="1"/>
-    <row r="42" ht="16.350000000000001" customHeight="1"/>
-    <row r="43" ht="16.350000000000001" customHeight="1"/>
-    <row r="44" ht="16.350000000000001" customHeight="1"/>
-    <row r="45" ht="16.350000000000001" customHeight="1"/>
-    <row r="46" ht="16.350000000000001" customHeight="1"/>
-    <row r="47" ht="16.350000000000001" customHeight="1"/>
-    <row r="48" ht="16.350000000000001" customHeight="1"/>
-    <row r="49" ht="16.350000000000001" customHeight="1"/>
-    <row r="50" ht="16.350000000000001" customHeight="1"/>
-    <row r="51" ht="16.350000000000001" customHeight="1"/>
-    <row r="52" ht="16.350000000000001" customHeight="1"/>
-    <row r="53" ht="16.350000000000001" customHeight="1"/>
-    <row r="54" ht="16.350000000000001" customHeight="1"/>
-    <row r="55" ht="16.350000000000001" customHeight="1"/>
-    <row r="56" ht="16.350000000000001" customHeight="1"/>
-    <row r="57" ht="16.350000000000001" customHeight="1"/>
-    <row r="58" ht="16.350000000000001" customHeight="1"/>
-    <row r="59" ht="16.350000000000001" customHeight="1"/>
-    <row r="60" ht="16.350000000000001" customHeight="1"/>
-    <row r="61" ht="16.350000000000001" customHeight="1"/>
-    <row r="63" ht="29.85" customHeight="1"/>
-    <row r="66" ht="29.85" customHeight="1"/>
-    <row r="67" ht="29.85" customHeight="1"/>
-    <row r="69" ht="70.150000000000006" customHeight="1"/>
-    <row r="70" ht="70.150000000000006" customHeight="1"/>
-    <row r="71" ht="56.65" customHeight="1"/>
-    <row r="72" ht="43.35" customHeight="1"/>
-    <row r="73" ht="70.150000000000006" customHeight="1"/>
-    <row r="74" ht="43.35" customHeight="1"/>
-    <row r="75" ht="29.85" customHeight="1"/>
-    <row r="79" ht="16.350000000000001" customHeight="1"/>
-    <row r="84" ht="16.350000000000001" customHeight="1"/>
-    <row r="89" ht="16.350000000000001" customHeight="1"/>
-    <row r="90" ht="16.350000000000001" customHeight="1"/>
-    <row r="91" ht="16.350000000000001" customHeight="1"/>
-    <row r="92" ht="16.350000000000001" customHeight="1"/>
-    <row r="93" ht="16.350000000000001" customHeight="1"/>
-    <row r="96" ht="16.350000000000001" customHeight="1"/>
-    <row r="102" ht="29.85" customHeight="1"/>
-    <row r="103" ht="29.85" customHeight="1"/>
+    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="56.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="10">

--- a/Associado1-2/Planilha_DepEconomiaRelacoesInternacionais-Associado1-2-nelson.xlsx
+++ b/Associado1-2/Planilha_DepEconomiaRelacoesInternacionais-Associado1-2-nelson.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelso\proj\progressao_promocao_ufrgs\Associado1-2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B1EA8E-04F4-4EBF-B1E8-E873048F78BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="628"/>
   </bookViews>
   <sheets>
     <sheet name="CPPD 01-18" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CPPD 01-18'!$A$1:$F$130</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1700,7 +1694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="* #,##0\ ;* \(#,##0\);* \-#\ ;@\ "/>
     <numFmt numFmtId="165" formatCode="* #,##0.0\ ;* \(#,##0.0\);* \-#\ ;@\ "/>
@@ -1710,7 +1704,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2520,6 +2514,206 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -2530,14 +2724,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2581,331 +2767,139 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2951,7 +2945,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3057,7 +3051,7 @@
         <xdr:cNvPr id="3" name="Grupo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,8 +3059,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="871105" y="38966"/>
-          <a:ext cx="7044671" cy="565150"/>
+          <a:off x="836180" y="38966"/>
+          <a:ext cx="6781146" cy="536575"/>
           <a:chOff x="200025" y="38966"/>
           <a:chExt cx="6764549" cy="539461"/>
         </a:xfrm>
@@ -3076,7 +3070,7 @@
           <xdr:cNvPr id="1034" name="Imagem 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3088,7 +3082,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3111,14 +3105,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3135,7 +3129,7 @@
           <xdr:cNvPr id="2" name="Imagem 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3147,7 +3141,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3481,7 +3475,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3523,7 +3517,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3542,42 +3536,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="53" style="27" customWidth="1"/>
-    <col min="3" max="5" width="13.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="8.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="19" width="8.453125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="28.26953125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="51.54296875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="72.453125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="75.26953125" style="2" customWidth="1"/>
-    <col min="24" max="43" width="8.453125" style="2"/>
+    <col min="3" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="8.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="19" width="8.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="51.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="72.42578125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="75.28515625" style="2" customWidth="1"/>
+    <col min="24" max="43" width="8.42578125" style="2"/>
     <col min="44" max="44" width="52" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.453125" style="2"/>
+    <col min="45" max="16384" width="8.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="1"/>
       <c r="I1" s="15">
         <v>0</v>
@@ -3586,15 +3580,15 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="106" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
       <c r="G2" s="3"/>
       <c r="I2" s="15">
         <v>10</v>
@@ -3603,15 +3597,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="134" t="s">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
       <c r="G3" s="3"/>
       <c r="I3" s="86">
         <f>F109</f>
@@ -3621,288 +3615,288 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="137" t="s">
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="139"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="140" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="105" t="s">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="106" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="116" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="106" t="s">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="116" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="106" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="141" t="s">
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108" t="s">
+    <row r="13" spans="1:10" ht="16.350000000000001" customHeight="1">
+      <c r="A13" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="113" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="94" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108" t="s">
+    <row r="14" spans="1:10" ht="16.350000000000001" customHeight="1">
+      <c r="A14" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="112" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108" t="s">
+    <row r="15" spans="1:10" ht="16.350000000000001" customHeight="1">
+      <c r="A15" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="112" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108" t="s">
+    <row r="16" spans="1:10" ht="16.350000000000001" customHeight="1">
+      <c r="A16" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="113">
+      <c r="B16" s="118"/>
+      <c r="C16" s="94">
         <v>169689</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="144" t="s">
+    <row r="17" spans="1:7" ht="16.350000000000001" customHeight="1">
+      <c r="A17" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="142">
+      <c r="B17" s="92"/>
+      <c r="C17" s="88">
         <v>42500</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="144" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="146" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="144" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="143" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="144" t="s">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A20" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="145">
+      <c r="B20" s="92"/>
+      <c r="C20" s="93">
         <v>40597</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="108" t="s">
+    <row r="21" spans="1:7" ht="16.350000000000001" customHeight="1">
+      <c r="A21" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="113" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="109" t="s">
+    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1">
+      <c r="A23" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="109"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="43">
         <v>42500</v>
       </c>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="147"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="44">
         <v>45596</v>
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="148" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="141" t="s">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="110" t="s">
+    <row r="27" spans="1:7" ht="29.1" customHeight="1">
+      <c r="A27" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>262</v>
       </c>
@@ -3917,7 +3911,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>263</v>
       </c>
@@ -3932,7 +3926,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>264</v>
       </c>
@@ -3945,7 +3939,7 @@
       <c r="F30" s="46"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>265</v>
       </c>
@@ -3958,7 +3952,7 @@
       <c r="F31" s="46"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>266</v>
       </c>
@@ -3971,15 +3965,15 @@
       <c r="F32" s="46"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="80"/>
       <c r="F33" s="46">
         <f>62*0.5+2</f>
@@ -3987,91 +3981,91 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="111" t="s">
+    <row r="34" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A34" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
       <c r="F34" s="16">
         <f>IF(F33&lt;=8,0,IF(F33&gt;8,F33-8))</f>
         <v>25</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="111" t="s">
+    <row r="36" spans="1:7" ht="16.350000000000001" customHeight="1">
+      <c r="A36" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
       <c r="F36" s="11">
         <f>SUM(F28:F32)+IF(F33&lt;8,F33,8)</f>
         <v>64</v>
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="107" t="s">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
+      <c r="B37" s="127"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
       <c r="F37" s="47">
         <v>32</v>
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="107" t="s">
+    <row r="38" spans="1:7" ht="33" customHeight="1">
+      <c r="A38" s="127" t="s">
         <v>260</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="10">
         <f>IF(C19="20 horas",IF(F36&gt;F37,(F36-F37)/2,0),0)</f>
         <v>0</v>
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="91" t="s">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30">
       <c r="A41" s="12" t="s">
         <v>351</v>
       </c>
@@ -4092,7 +4086,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="60">
       <c r="A42" s="77" t="s">
         <v>268</v>
       </c>
@@ -4112,7 +4106,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="60">
       <c r="A43" s="77" t="s">
         <v>269</v>
       </c>
@@ -4132,7 +4126,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="60">
       <c r="A44" s="77" t="s">
         <v>270</v>
       </c>
@@ -4152,7 +4146,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="60">
       <c r="A45" s="77" t="s">
         <v>271</v>
       </c>
@@ -4172,7 +4166,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="60">
       <c r="A46" s="77" t="s">
         <v>272</v>
       </c>
@@ -4192,7 +4186,7 @@
       </c>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="77" t="s">
         <v>273</v>
       </c>
@@ -4208,7 +4202,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="60">
       <c r="A48" s="77" t="s">
         <v>362</v>
       </c>
@@ -4228,7 +4222,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="60">
       <c r="A49" s="77" t="s">
         <v>363</v>
       </c>
@@ -4248,7 +4242,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="60">
       <c r="A50" s="77" t="s">
         <v>364</v>
       </c>
@@ -4268,7 +4262,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="60">
       <c r="A51" s="77" t="s">
         <v>365</v>
       </c>
@@ -4288,7 +4282,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="60">
       <c r="A52" s="77" t="s">
         <v>366</v>
       </c>
@@ -4301,16 +4295,14 @@
       <c r="D52" s="13">
         <v>4</v>
       </c>
-      <c r="E52" s="73">
-        <v>2</v>
-      </c>
+      <c r="E52" s="73"/>
       <c r="F52" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="30" customHeight="1">
       <c r="A53" s="77" t="s">
         <v>274</v>
       </c>
@@ -4326,7 +4318,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="60">
       <c r="A54" s="77" t="s">
         <v>372</v>
       </c>
@@ -4346,7 +4338,7 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="60">
       <c r="A55" s="77" t="s">
         <v>373</v>
       </c>
@@ -4366,7 +4358,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="60">
       <c r="A56" s="77" t="s">
         <v>275</v>
       </c>
@@ -4379,14 +4371,16 @@
       <c r="D56" s="13">
         <v>4</v>
       </c>
-      <c r="E56" s="73"/>
+      <c r="E56" s="73">
+        <v>1</v>
+      </c>
       <c r="F56" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="60">
       <c r="A57" s="77" t="s">
         <v>276</v>
       </c>
@@ -4408,7 +4402,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="60">
       <c r="A58" s="77" t="s">
         <v>277</v>
       </c>
@@ -4428,7 +4422,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="60">
       <c r="A59" s="77" t="s">
         <v>278</v>
       </c>
@@ -4448,7 +4442,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="60">
       <c r="A60" s="77" t="s">
         <v>279</v>
       </c>
@@ -4468,7 +4462,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="60">
       <c r="A61" s="77" t="s">
         <v>280</v>
       </c>
@@ -4488,41 +4482,41 @@
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="97" t="s">
+    <row r="62" spans="1:13" ht="30" customHeight="1">
+      <c r="A62" s="145" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="95" t="s">
+      <c r="B62" s="143" t="s">
         <v>393</v>
       </c>
-      <c r="C62" s="88" t="s">
+      <c r="C62" s="138" t="s">
         <v>392</v>
       </c>
-      <c r="D62" s="90"/>
-      <c r="E62" s="99">
+      <c r="D62" s="140"/>
+      <c r="E62" s="147">
         <v>48</v>
       </c>
-      <c r="F62" s="101">
+      <c r="F62" s="149">
         <f>E62/20</f>
         <v>2.4</v>
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="98"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="93" t="s">
+    <row r="63" spans="1:13" ht="92.25" customHeight="1">
+      <c r="A63" s="146"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="141" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="94"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="102"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="150"/>
       <c r="G63" s="3"/>
       <c r="M63" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="105">
       <c r="A64" s="77" t="s">
         <v>282</v>
       </c>
@@ -4544,7 +4538,7 @@
       </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="15" customHeight="1">
       <c r="A65" s="77" t="s">
         <v>283</v>
       </c>
@@ -4564,7 +4558,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="30" customHeight="1">
       <c r="A66" s="77" t="s">
         <v>284</v>
       </c>
@@ -4584,7 +4578,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="60">
       <c r="A67" s="77" t="s">
         <v>285</v>
       </c>
@@ -4606,7 +4600,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="60">
       <c r="A68" s="77" t="s">
         <v>286</v>
       </c>
@@ -4626,7 +4620,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="75">
       <c r="A69" s="77" t="s">
         <v>287</v>
       </c>
@@ -4648,7 +4642,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="50.25" customHeight="1">
       <c r="A70" s="77" t="s">
         <v>288</v>
       </c>
@@ -4664,7 +4658,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="75">
       <c r="A71" s="77" t="s">
         <v>399</v>
       </c>
@@ -4684,7 +4678,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="75">
       <c r="A72" s="77" t="s">
         <v>400</v>
       </c>
@@ -4704,7 +4698,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="75">
       <c r="A73" s="77" t="s">
         <v>401</v>
       </c>
@@ -4724,7 +4718,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="75">
       <c r="A74" s="77" t="s">
         <v>402</v>
       </c>
@@ -4744,7 +4738,7 @@
       </c>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="75">
       <c r="A75" s="77" t="s">
         <v>403</v>
       </c>
@@ -4764,7 +4758,7 @@
       </c>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:21" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="75">
       <c r="A76" s="77" t="s">
         <v>404</v>
       </c>
@@ -4784,64 +4778,64 @@
       </c>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="92"/>
+    <row r="77" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A77" s="91"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:21" ht="29.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="111" t="s">
+    <row r="78" spans="1:21" ht="29.85" customHeight="1">
+      <c r="A78" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="111"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="134"/>
+      <c r="E78" s="134"/>
       <c r="F78" s="17">
         <f>SUM(F42:F76)</f>
-        <v>51.4</v>
+        <v>47.4</v>
       </c>
       <c r="G78" s="3"/>
       <c r="U78" s="18"/>
     </row>
-    <row r="79" spans="1:21" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="107" t="s">
+    <row r="79" spans="1:21" ht="29.45" customHeight="1">
+      <c r="A79" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="127"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="127"/>
       <c r="F79" s="47">
         <v>25</v>
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="92"/>
+    <row r="80" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="91" t="s">
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B81" s="91"/>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="133"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="133"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="30">
       <c r="A82" s="81"/>
       <c r="B82" s="81" t="s">
         <v>319</v>
@@ -4860,7 +4854,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="75">
       <c r="A83" s="77" t="s">
         <v>289</v>
       </c>
@@ -4880,7 +4874,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="75">
       <c r="A84" s="77" t="s">
         <v>290</v>
       </c>
@@ -4900,7 +4894,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="105">
       <c r="A85" s="77" t="s">
         <v>291</v>
       </c>
@@ -4920,7 +4914,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="138" customHeight="1">
       <c r="A86" s="77" t="s">
         <v>292</v>
       </c>
@@ -4943,7 +4937,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="75">
       <c r="A87" s="77" t="s">
         <v>293</v>
       </c>
@@ -4966,7 +4960,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="75">
       <c r="A88" s="77" t="s">
         <v>294</v>
       </c>
@@ -4986,7 +4980,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="90">
       <c r="A89" s="77" t="s">
         <v>295</v>
       </c>
@@ -5006,20 +5000,20 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="45">
       <c r="A90" s="77" t="s">
         <v>296</v>
       </c>
       <c r="B90" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="C90" s="88"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="90"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="139"/>
+      <c r="E90" s="140"/>
       <c r="F90" s="16"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="75">
       <c r="A91" s="77" t="s">
         <v>355</v>
       </c>
@@ -5039,7 +5033,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="75">
       <c r="A92" s="77" t="s">
         <v>356</v>
       </c>
@@ -5061,7 +5055,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="75">
       <c r="A93" s="77" t="s">
         <v>416</v>
       </c>
@@ -5083,7 +5077,7 @@
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="75">
       <c r="A94" s="77" t="s">
         <v>417</v>
       </c>
@@ -5105,7 +5099,7 @@
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="75">
       <c r="A95" s="77" t="s">
         <v>418</v>
       </c>
@@ -5125,7 +5119,7 @@
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="75">
       <c r="A96" s="77" t="s">
         <v>419</v>
       </c>
@@ -5145,36 +5139,36 @@
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11">
       <c r="A97" s="77" t="s">
         <v>296</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C97" s="88"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="90"/>
+      <c r="C97" s="138"/>
+      <c r="D97" s="139"/>
+      <c r="E97" s="140"/>
       <c r="F97" s="16">
         <f>IF(SUM(F91:F96)&lt;=10,SUM(F91:F96),IF(SUM(F91:F96)&gt;10,10))</f>
         <v>10</v>
       </c>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="45">
       <c r="A98" s="77" t="s">
         <v>297</v>
       </c>
       <c r="B98" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C98" s="88"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="90"/>
+      <c r="C98" s="138"/>
+      <c r="D98" s="139"/>
+      <c r="E98" s="140"/>
       <c r="F98" s="16"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" ht="75">
       <c r="A99" s="77" t="s">
         <v>357</v>
       </c>
@@ -5196,7 +5190,7 @@
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" ht="75">
       <c r="A100" s="77" t="s">
         <v>358</v>
       </c>
@@ -5218,7 +5212,7 @@
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" ht="75">
       <c r="A101" s="77" t="s">
         <v>427</v>
       </c>
@@ -5240,7 +5234,7 @@
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="75">
       <c r="A102" s="77" t="s">
         <v>428</v>
       </c>
@@ -5262,7 +5256,7 @@
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" ht="75">
       <c r="A103" s="77" t="s">
         <v>429</v>
       </c>
@@ -5284,16 +5278,16 @@
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11">
       <c r="A104" s="77" t="s">
         <v>297</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C104" s="88"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="90"/>
+      <c r="C104" s="138"/>
+      <c r="D104" s="139"/>
+      <c r="E104" s="140"/>
       <c r="F104" s="16">
         <f>IF(SUM(F99:F103)&lt;=10,SUM(F99:F103),IF(SUM(F99:F103)&gt;10,10))</f>
         <v>0</v>
@@ -5302,79 +5296,79 @@
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="118"/>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="119"/>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A105" s="119"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="120"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="111" t="s">
+    <row r="106" spans="1:11" ht="42.75" customHeight="1">
+      <c r="A106" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="111"/>
-      <c r="C106" s="111"/>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
+      <c r="B106" s="134"/>
+      <c r="C106" s="134"/>
+      <c r="D106" s="134"/>
+      <c r="E106" s="134"/>
       <c r="F106" s="19">
         <f>SUM(F83:F89)+F97+F104</f>
         <v>24.694444444444443</v>
       </c>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="92"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A107" s="91"/>
+      <c r="B107" s="91"/>
+      <c r="C107" s="91"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="91"/>
+      <c r="F107" s="91"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="91" t="s">
+    <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="91"/>
-      <c r="C108" s="91"/>
-      <c r="D108" s="91"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="91"/>
+      <c r="B108" s="133"/>
+      <c r="C108" s="133"/>
+      <c r="D108" s="133"/>
+      <c r="E108" s="133"/>
+      <c r="F108" s="133"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" ht="30" customHeight="1">
       <c r="A109" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="B109" s="107" t="s">
+      <c r="B109" s="127" t="s">
         <v>441</v>
       </c>
-      <c r="C109" s="107"/>
-      <c r="D109" s="107"/>
-      <c r="E109" s="107"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="127"/>
       <c r="F109" s="48">
         <v>4.4000000000000004</v>
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="111" t="s">
+    <row r="110" spans="1:11" ht="15" customHeight="1">
+      <c r="A110" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="134"/>
+      <c r="D110" s="134"/>
+      <c r="E110" s="134"/>
       <c r="F110" s="19">
         <f>IF((I3-(I2+I1)/2)&gt;0,((I3-(I2+I1)/2)/(I2-I1))*20,0)</f>
         <v>0</v>
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="B111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
@@ -5382,71 +5376,71 @@
       <c r="F111" s="22"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="91" t="s">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A112" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="91"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="91"/>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
+      <c r="B112" s="133"/>
+      <c r="C112" s="133"/>
+      <c r="D112" s="133"/>
+      <c r="E112" s="133"/>
+      <c r="F112" s="133"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="114" t="s">
+    <row r="113" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="124" t="s">
         <v>314</v>
       </c>
-      <c r="B113" s="115"/>
-      <c r="C113" s="115"/>
-      <c r="D113" s="115"/>
-      <c r="E113" s="115"/>
-      <c r="F113" s="116"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="126"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="103" t="s">
+    <row r="114" spans="1:19" ht="15" customHeight="1">
+      <c r="A114" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="117"/>
+      <c r="B114" s="131"/>
+      <c r="C114" s="131"/>
+      <c r="D114" s="131"/>
+      <c r="E114" s="132"/>
       <c r="F114" s="49"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="103" t="s">
+    <row r="115" spans="1:19" ht="30" customHeight="1">
+      <c r="A115" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="104"/>
-      <c r="C115" s="104"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="117"/>
+      <c r="B115" s="131"/>
+      <c r="C115" s="131"/>
+      <c r="D115" s="131"/>
+      <c r="E115" s="132"/>
       <c r="F115" s="49"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="123"/>
-      <c r="B116" s="123"/>
-      <c r="C116" s="123"/>
-      <c r="D116" s="123"/>
-      <c r="E116" s="123"/>
-      <c r="F116" s="124"/>
+    <row r="116" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A116" s="128"/>
+      <c r="B116" s="128"/>
+      <c r="C116" s="128"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="128"/>
+      <c r="F116" s="129"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="114" t="s">
+    <row r="117" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A117" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="B117" s="115"/>
-      <c r="C117" s="115"/>
-      <c r="D117" s="115"/>
-      <c r="E117" s="115"/>
-      <c r="F117" s="116"/>
+      <c r="B117" s="125"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="126"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" ht="16.350000000000001" customHeight="1">
       <c r="A118" s="6" t="s">
         <v>299</v>
       </c>
@@ -5463,7 +5457,7 @@
       <c r="G118" s="3"/>
       <c r="H118" s="23"/>
     </row>
-    <row r="119" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" ht="16.350000000000001" customHeight="1">
       <c r="A119" s="6" t="s">
         <v>300</v>
       </c>
@@ -5475,19 +5469,19 @@
       <c r="E119" s="80"/>
       <c r="F119" s="19">
         <f>IF(F78&gt;=F79,F78,IF(F78+F115/2&gt;F79,F79,IF(F78+F115/2+F38&gt;F79,F79,F78+F115/2+F38)))</f>
-        <v>51.4</v>
+        <v>47.4</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="23"/>
     </row>
-    <row r="120" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" ht="16.350000000000001" customHeight="1">
       <c r="A120" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B120" s="103" t="s">
+      <c r="B120" s="130" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="104"/>
+      <c r="C120" s="131"/>
       <c r="D120" s="79"/>
       <c r="E120" s="80"/>
       <c r="F120" s="19">
@@ -5500,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19">
       <c r="A121" s="6" t="s">
         <v>302</v>
       </c>
@@ -5517,49 +5511,49 @@
       <c r="G121" s="3"/>
       <c r="H121" s="23"/>
     </row>
-    <row r="122" spans="1:19" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="92"/>
-      <c r="B122" s="92"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="92"/>
-      <c r="E122" s="92"/>
-      <c r="F122" s="92"/>
+    <row r="122" spans="1:19" ht="16.350000000000001" customHeight="1">
+      <c r="A122" s="91"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A123" s="111" t="s">
+    <row r="123" spans="1:19">
+      <c r="A123" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="111"/>
-      <c r="C123" s="111"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="134"/>
+      <c r="D123" s="134"/>
+      <c r="E123" s="134"/>
       <c r="F123" s="19">
         <f>IF(T136&gt;=F124,T136,IF(T136+T137&gt;=F124,F124,T136+T137))</f>
-        <v>140.09444444444443</v>
+        <v>136.09444444444443</v>
       </c>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="107" t="s">
+    <row r="124" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B124" s="107"/>
-      <c r="C124" s="107"/>
-      <c r="D124" s="107"/>
-      <c r="E124" s="107"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
       <c r="F124" s="47">
         <v>70</v>
       </c>
       <c r="G124" s="24"/>
     </row>
-    <row r="125" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="92"/>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
-      <c r="F125" s="92"/>
+    <row r="125" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="91"/>
+      <c r="B125" s="91"/>
+      <c r="C125" s="91"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
@@ -5567,76 +5561,76 @@
       <c r="K125" s="25"/>
       <c r="L125" s="25"/>
     </row>
-    <row r="126" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="120" t="s">
+    <row r="126" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A126" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="121"/>
-      <c r="C126" s="121"/>
-      <c r="D126" s="121"/>
-      <c r="E126" s="121"/>
-      <c r="F126" s="122"/>
-    </row>
-    <row r="127" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="114" t="s">
+      <c r="B126" s="122"/>
+      <c r="C126" s="122"/>
+      <c r="D126" s="122"/>
+      <c r="E126" s="122"/>
+      <c r="F126" s="123"/>
+    </row>
+    <row r="127" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="124" t="s">
         <v>435</v>
       </c>
-      <c r="B127" s="115"/>
-      <c r="C127" s="115"/>
-      <c r="D127" s="115"/>
-      <c r="E127" s="115"/>
-      <c r="F127" s="116"/>
-    </row>
-    <row r="128" spans="1:19" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="107" t="s">
+      <c r="B127" s="125"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="126"/>
+    </row>
+    <row r="128" spans="1:19" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="107"/>
-      <c r="E128" s="107"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="127"/>
+      <c r="E128" s="127"/>
       <c r="F128" s="84">
         <f>IF(F123&gt;F124,MIN(F123-F124,F36-F37),0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="107" t="s">
+    <row r="129" spans="1:21" ht="29.1" customHeight="1">
+      <c r="A129" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B129" s="107"/>
-      <c r="C129" s="107"/>
-      <c r="D129" s="107"/>
-      <c r="E129" s="107"/>
+      <c r="B129" s="127"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="127"/>
+      <c r="E129" s="127"/>
       <c r="F129" s="84">
         <f>IF(F123&gt;F124,MIN(F123-F124,F119-F79),0)</f>
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="125" t="s">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" ht="15" customHeight="1">
+      <c r="A130" s="100" t="s">
         <v>436</v>
       </c>
-      <c r="B130" s="126"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="126"/>
-      <c r="E130" s="127"/>
+      <c r="B130" s="101"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="102"/>
       <c r="F130" s="85">
         <f>IF(F124-F37-F79&lt;=F106+F121,F123-F124-(F120+F121-F124+F37+F79),SUMIF(F128:F129,"&gt;=0"))</f>
-        <v>58.399999999999991</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+        <v>54.399999999999991</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
       <c r="B131" s="20"/>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="26"/>
     </row>
-    <row r="132" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" ht="15.75" customHeight="1">
       <c r="F132" s="28"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21">
       <c r="T133" s="29" t="s">
         <v>303</v>
       </c>
@@ -5644,7 +5638,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" ht="18" customHeight="1">
       <c r="T134" s="30">
         <f>(F115/2-(F119-F78))</f>
         <v>0</v>
@@ -5653,22 +5647,22 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" ht="15" customHeight="1">
       <c r="T135" s="31"/>
       <c r="U135" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21">
       <c r="T136" s="31">
         <f>IF(SUM(F118:F121)&gt;=F124,SUM(F118:F121),IF(SUM(F118:F121)&lt;F124,SUM(F118:F121)+F34))</f>
-        <v>140.09444444444443</v>
+        <v>136.09444444444443</v>
       </c>
       <c r="U136" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21">
       <c r="T137" s="31">
         <f>F114/2+IF(T134&lt;=0,0,T134)</f>
         <v>0</v>
@@ -5677,23 +5671,23 @@
         <v>311</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21">
       <c r="T138" s="32">
         <f>IF(F36-F118&gt;=0,F118-F37,0)</f>
         <v>32</v>
       </c>
       <c r="U138" s="6"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21">
       <c r="T139" s="33">
         <f>F78+F115/2</f>
-        <v>51.4</v>
+        <v>47.4</v>
       </c>
       <c r="U139" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="228" spans="20:23" ht="17.25">
       <c r="T228" s="34" t="s">
         <v>222</v>
       </c>
@@ -5707,7 +5701,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="229" spans="20:23" ht="17.25">
       <c r="T229" s="34" t="s">
         <v>21</v>
       </c>
@@ -5721,7 +5715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="230" spans="20:23" ht="17.25">
       <c r="T230" s="34" t="s">
         <v>217</v>
       </c>
@@ -5735,7 +5729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="231" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="231" spans="20:23" ht="17.25">
       <c r="T231" s="34" t="s">
         <v>218</v>
       </c>
@@ -5749,7 +5743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="232" spans="20:23" ht="17.25">
       <c r="U232" s="41" t="s">
         <v>92</v>
       </c>
@@ -5760,7 +5754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="233" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="233" spans="20:23" ht="17.25">
       <c r="U233" s="41" t="s">
         <v>96</v>
       </c>
@@ -5771,7 +5765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="234" spans="20:23" ht="17.25">
       <c r="U234" s="41" t="s">
         <v>106</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="235" spans="20:23" ht="17.25">
       <c r="U235" s="41" t="s">
         <v>113</v>
       </c>
@@ -5793,7 +5787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="236" spans="20:23" ht="17.25">
       <c r="U236" s="41" t="s">
         <v>117</v>
       </c>
@@ -5804,7 +5798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="237" spans="20:23" ht="17.25">
       <c r="U237" s="41" t="s">
         <v>120</v>
       </c>
@@ -5815,7 +5809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="238" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="238" spans="20:23" ht="17.25">
       <c r="U238" s="41" t="s">
         <v>123</v>
       </c>
@@ -5826,7 +5820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="239" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="239" spans="20:23" ht="17.25">
       <c r="U239" s="41" t="s">
         <v>128</v>
       </c>
@@ -5837,7 +5831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="240" spans="20:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="240" spans="20:23" ht="17.25">
       <c r="U240" s="42" t="s">
         <v>132</v>
       </c>
@@ -5848,7 +5842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="241" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="241" spans="21:23" ht="17.25">
       <c r="U241" s="41" t="s">
         <v>136</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="242" spans="21:23" ht="17.25">
       <c r="U242" s="41" t="s">
         <v>146</v>
       </c>
@@ -5870,7 +5864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="243" spans="21:23" ht="17.25">
       <c r="U243" s="42" t="s">
         <v>150</v>
       </c>
@@ -5881,7 +5875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="244" spans="21:23" ht="17.25">
       <c r="U244" s="42" t="s">
         <v>154</v>
       </c>
@@ -5892,7 +5886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="245" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="245" spans="21:23" ht="17.25">
       <c r="U245" s="42" t="s">
         <v>158</v>
       </c>
@@ -5903,7 +5897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="246" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="246" spans="21:23" ht="17.25">
       <c r="U246" s="41" t="s">
         <v>165</v>
       </c>
@@ -5914,7 +5908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="247" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="247" spans="21:23" ht="17.25">
       <c r="U247" s="41" t="s">
         <v>171</v>
       </c>
@@ -5925,7 +5919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="248" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="248" spans="21:23" ht="17.25">
       <c r="U248" s="41" t="s">
         <v>174</v>
       </c>
@@ -5936,7 +5930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="249" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="249" spans="21:23" ht="17.25">
       <c r="U249" s="41" t="s">
         <v>180</v>
       </c>
@@ -5947,7 +5941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="250" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="250" spans="21:23" ht="17.25">
       <c r="U250" s="41" t="s">
         <v>183</v>
       </c>
@@ -5958,7 +5952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="251" spans="21:23" ht="17.25">
       <c r="U251" s="41" t="s">
         <v>189</v>
       </c>
@@ -5969,7 +5963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="252" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="252" spans="21:23" ht="17.25">
       <c r="U252" s="41" t="s">
         <v>192</v>
       </c>
@@ -5977,7 +5971,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="253" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="253" spans="21:23" ht="17.25">
       <c r="U253" s="41" t="s">
         <v>196</v>
       </c>
@@ -5985,7 +5979,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="254" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="254" spans="21:23" ht="17.25">
       <c r="U254" s="41" t="s">
         <v>199</v>
       </c>
@@ -5993,7 +5987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="255" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="255" spans="21:23" ht="17.25">
       <c r="U255" s="41" t="s">
         <v>202</v>
       </c>
@@ -6001,7 +5995,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="256" spans="21:23" ht="17" x14ac:dyDescent="0.4">
+    <row r="256" spans="21:23" ht="17.25">
       <c r="U256" s="41" t="s">
         <v>208</v>
       </c>
@@ -6009,352 +6003,352 @@
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="257" spans="22:22" ht="17.25">
       <c r="V257" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="258" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="258" spans="22:22" ht="17.25">
       <c r="V258" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="259" spans="22:22" ht="17.25">
       <c r="V259" s="37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="260" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="260" spans="22:22" ht="17.25">
       <c r="V260" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="261" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="261" spans="22:22" ht="17.25">
       <c r="V261" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="262" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="262" spans="22:22" ht="17.25">
       <c r="V262" s="37" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="263" spans="22:22" ht="17.25">
       <c r="V263" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="264" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="264" spans="22:22" ht="17.25">
       <c r="V264" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="265" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="265" spans="22:22" ht="17.25">
       <c r="V265" s="37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="266" spans="22:22" ht="17.25">
       <c r="V266" s="37" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="267" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="267" spans="22:22" ht="17.25">
       <c r="V267" s="37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="268" spans="22:22" ht="17.25">
       <c r="V268" s="37" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="269" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="269" spans="22:22" ht="17.25">
       <c r="V269" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="270" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="270" spans="22:22" ht="17.25">
       <c r="V270" s="37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="271" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="271" spans="22:22" ht="17.25">
       <c r="V271" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="272" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="272" spans="22:22" ht="17.25">
       <c r="V272" s="37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="273" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="273" spans="22:22" ht="17.25">
       <c r="V273" s="37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="274" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="274" spans="22:22" ht="17.25">
       <c r="V274" s="37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="275" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="275" spans="22:22" ht="17.25">
       <c r="V275" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="276" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="276" spans="22:22" ht="17.25">
       <c r="V276" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="277" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="277" spans="22:22" ht="17.25">
       <c r="V277" s="37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="278" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="278" spans="22:22" ht="17.25">
       <c r="V278" s="37" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="279" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="279" spans="22:22" ht="17.25">
       <c r="V279" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="280" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="280" spans="22:22" ht="17.25">
       <c r="V280" s="37" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="281" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="281" spans="22:22" ht="17.25">
       <c r="V281" s="37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="282" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="282" spans="22:22" ht="17.25">
       <c r="V282" s="37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="283" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="283" spans="22:22" ht="17.25">
       <c r="V283" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="284" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="284" spans="22:22" ht="17.25">
       <c r="V284" s="37" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="285" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="285" spans="22:22" ht="17.25">
       <c r="V285" s="37" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="286" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="286" spans="22:22" ht="17.25">
       <c r="V286" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="287" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="287" spans="22:22" ht="17.25">
       <c r="V287" s="37" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="288" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="288" spans="22:22" ht="17.25">
       <c r="V288" s="37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="289" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="289" spans="22:22" ht="17.25">
       <c r="V289" s="37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="290" spans="22:22" ht="17.25">
       <c r="V290" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="291" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="291" spans="22:22" ht="17.25">
       <c r="V291" s="37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="292" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="292" spans="22:22" ht="17.25">
       <c r="V292" s="37" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="293" spans="22:22" ht="17.25">
       <c r="V293" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="294" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="294" spans="22:22" ht="17.25">
       <c r="V294" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="295" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="295" spans="22:22" ht="17.25">
       <c r="V295" s="37" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="296" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="296" spans="22:22" ht="17.25">
       <c r="V296" s="37" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="297" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="297" spans="22:22" ht="17.25">
       <c r="V297" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="298" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="298" spans="22:22" ht="17.25">
       <c r="V298" s="37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="299" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="299" spans="22:22" ht="17.25">
       <c r="V299" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="300" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="300" spans="22:22" ht="17.25">
       <c r="V300" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="301" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="301" spans="22:22" ht="17.25">
       <c r="V301" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="302" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="302" spans="22:22" ht="17.25">
       <c r="V302" s="37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="303" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="303" spans="22:22" ht="17.25">
       <c r="V303" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="304" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="304" spans="22:22" ht="17.25">
       <c r="V304" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="305" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="305" spans="22:22" ht="17.25">
       <c r="V305" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="306" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="306" spans="22:22" ht="17.25">
       <c r="V306" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="307" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="307" spans="22:22" ht="17.25">
       <c r="V307" s="37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="308" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="308" spans="22:22" ht="17.25">
       <c r="V308" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="309" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="309" spans="22:22" ht="17.25">
       <c r="V309" s="37" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="310" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="310" spans="22:22" ht="17.25">
       <c r="V310" s="37" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="311" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="311" spans="22:22" ht="17.25">
       <c r="V311" s="37" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="312" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="312" spans="22:22" ht="17.25">
       <c r="V312" s="37" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="313" spans="22:22" ht="17.25">
       <c r="V313" s="37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="314" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="314" spans="22:22" ht="17.25">
       <c r="V314" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="315" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="315" spans="22:22" ht="17.25">
       <c r="V315" s="37" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="316" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="316" spans="22:22" ht="17.25">
       <c r="V316" s="37" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="317" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="317" spans="22:22" ht="17.25">
       <c r="V317" s="37" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="318" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="318" spans="22:22" ht="17.25">
       <c r="V318" s="37" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="319" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="319" spans="22:22" ht="17.25">
       <c r="V319" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="320" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="320" spans="22:22" ht="17.25">
       <c r="V320" s="37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="321" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="321" spans="22:22" ht="17.25">
       <c r="V321" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="322" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="322" spans="22:22" ht="17.25">
       <c r="V322" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="323" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="323" spans="22:22" ht="17.25">
       <c r="V323" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="324" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="324" spans="22:22" ht="17.25">
       <c r="V324" s="37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="325" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="325" spans="22:22" ht="17.25">
       <c r="V325" s="37" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="326" spans="22:22" ht="17" x14ac:dyDescent="0.4">
+    <row r="326" spans="22:22" ht="17.25">
       <c r="V326" s="37" t="s">
         <v>87</v>
       </c>
@@ -6362,20 +6356,58 @@
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="82">
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A128:E128"/>
     <mergeCell ref="A130:E130"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="A1:F1"/>
@@ -6392,70 +6424,32 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione a Unidade" sqref="C14:F14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione a Unidade" sqref="C14:F14">
       <formula1>$U$228:$U$256</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione o Departamento" sqref="C15:F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" promptTitle="Selecione o Departamento" sqref="C15:F15">
       <formula1>$V$228:$V$326</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecione uma das opções" error="Clique em Cancelar e Selecione uma das Opções" sqref="C18:F18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Selecione uma das opções" error="Clique em Cancelar e Selecione uma das Opções" sqref="C18:F18">
       <formula1>$W$228:$W$251</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" sqref="C19:F19 C21:F21" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Clique em Cancelar e Selecione uma das Opções" sqref="C19:F19 C21:F21">
       <formula1>$T$228:$T$231</formula1>
     </dataValidation>
   </dataValidations>
@@ -6468,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
@@ -6476,36 +6470,36 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="91.26953125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="60" customWidth="1"/>
+    <col min="1" max="1" width="91.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="60" customWidth="1"/>
     <col min="5" max="5" width="8" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="20" customWidth="1"/>
     <col min="7" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A1" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="169"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="178"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:6" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="172"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
+    <row r="2" spans="1:6" ht="18.2" customHeight="1">
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
     </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="75" t="s">
         <v>229</v>
       </c>
@@ -6521,475 +6515,475 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="166" t="s">
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="171"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="184" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-    </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="183" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-    </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="170" t="s">
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="180" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
       <c r="E7" s="53"/>
       <c r="F7" s="54"/>
     </row>
-    <row r="8" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="151" t="s">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
       <c r="E8" s="55"/>
       <c r="F8" s="54"/>
     </row>
-    <row r="9" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151" t="s">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="183" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
       <c r="E9" s="55"/>
       <c r="F9" s="54"/>
     </row>
-    <row r="10" spans="1:6" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="165"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="163"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="53"/>
       <c r="F10" s="54"/>
     </row>
-    <row r="11" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="152" t="s">
+    <row r="11" spans="1:6" ht="18.75">
+      <c r="A11" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="159" t="s">
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="161"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
       <c r="D12" s="61"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="159" t="s">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="160"/>
-      <c r="C13" s="161"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="153"/>
       <c r="D13" s="61"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="153"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="159" t="s">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="157"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.350000000000001" customHeight="1">
+      <c r="A15" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="161"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
       <c r="D15" s="61"/>
     </row>
-    <row r="16" spans="1:6" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="159" t="s">
+    <row r="16" spans="1:6" ht="16.350000000000001" customHeight="1">
+      <c r="A16" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="160"/>
-      <c r="C16" s="161"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="61"/>
     </row>
-    <row r="17" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="156"/>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="162" t="s">
+    <row r="17" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A17" s="170"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A18" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
       <c r="D18" s="62"/>
     </row>
-    <row r="19" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="162" t="s">
+    <row r="19" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A19" s="154" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
       <c r="D19" s="62"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="162" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A21" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="164"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
       <c r="D21" s="56" t="e">
         <f>(D13-B3)/(D13-D12)*D18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="162" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="154" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="56" t="e">
         <f>(D3-D15)/(D16-D15)*D19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="154"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="152" t="s">
+    <row r="23" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A23" s="158"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="179" t="s">
         <v>226</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="159" t="s">
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A25" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="161"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
       <c r="D25" s="61"/>
     </row>
-    <row r="26" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="159" t="s">
+    <row r="26" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A26" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="161"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
       <c r="D26" s="61"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="153"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="159" t="s">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="157"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="161"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
       <c r="D28" s="61"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="159" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
       <c r="D29" s="61"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-    </row>
-    <row r="31" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="162" t="s">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="170"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="172"/>
+    </row>
+    <row r="31" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A31" s="154" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
       <c r="D31" s="62"/>
     </row>
-    <row r="32" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="162" t="s">
+    <row r="32" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A32" s="154" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="164"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
       <c r="D32" s="62"/>
     </row>
-    <row r="33" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="162" t="s">
+    <row r="33" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A33" s="157"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A34" s="154" t="s">
         <v>240</v>
       </c>
-      <c r="B34" s="163"/>
-      <c r="C34" s="164"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
       <c r="D34" s="56" t="e">
         <f>(D26-B3)/(D26-D25)*D31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="162" t="s">
+    <row r="35" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A35" s="154" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="163"/>
-      <c r="C35" s="164"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
       <c r="D35" s="56" t="e">
         <f>(D3-D28)/(D29-D28)*D32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="165"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="152" t="s">
+    <row r="36" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A36" s="163"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+    </row>
+    <row r="37" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A37" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="159" t="s">
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="160"/>
-      <c r="C38" s="161"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="153"/>
       <c r="D38" s="61"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="159" t="s">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="160"/>
-      <c r="C39" s="161"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="153"/>
       <c r="D39" s="61"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="153"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="155"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="159" t="s">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="157"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="159"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="161"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
       <c r="D41" s="61"/>
     </row>
-    <row r="42" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="159" t="s">
+    <row r="42" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A42" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="B42" s="160"/>
-      <c r="C42" s="161"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="153"/>
       <c r="D42" s="61"/>
     </row>
-    <row r="43" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="156"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="158"/>
-    </row>
-    <row r="44" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="162" t="s">
+    <row r="43" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A43" s="170"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="172"/>
+    </row>
+    <row r="44" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A44" s="154" t="s">
         <v>242</v>
       </c>
-      <c r="B44" s="163"/>
-      <c r="C44" s="164"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="62"/>
     </row>
-    <row r="45" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="162" t="s">
+    <row r="45" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A45" s="154" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="163"/>
-      <c r="C45" s="164"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="62"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="153"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="155"/>
-    </row>
-    <row r="47" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="162" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="157"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="159"/>
+    </row>
+    <row r="47" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A47" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="B47" s="163"/>
-      <c r="C47" s="164"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="156"/>
       <c r="D47" s="56" t="e">
         <f>(D39-B3)/(D39-D38)*D44</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="162" t="s">
+    <row r="48" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A48" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="164"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
       <c r="D48" s="56" t="e">
         <f>(D3-D41)/(D42-D41)*D45</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="165"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="154"/>
-    </row>
-    <row r="50" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="182" t="s">
+    <row r="49" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A49" s="163"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+    </row>
+    <row r="50" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A50" s="160" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="183"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="184"/>
-    </row>
-    <row r="51" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="159" t="s">
+      <c r="B50" s="161"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="162"/>
+    </row>
+    <row r="51" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A51" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="160"/>
-      <c r="C51" s="161"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
       <c r="D51" s="61"/>
     </row>
-    <row r="52" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="159" t="s">
+    <row r="52" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A52" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="B52" s="160"/>
-      <c r="C52" s="161"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="153"/>
       <c r="D52" s="61"/>
     </row>
-    <row r="53" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="155"/>
-    </row>
-    <row r="54" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="159" t="s">
+    <row r="53" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A53" s="157"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="159"/>
+    </row>
+    <row r="54" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A54" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="160"/>
-      <c r="C54" s="161"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="153"/>
       <c r="D54" s="61"/>
     </row>
-    <row r="55" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="159" t="s">
+    <row r="55" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A55" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="B55" s="160"/>
-      <c r="C55" s="161"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="153"/>
       <c r="D55" s="61"/>
     </row>
-    <row r="56" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="156"/>
-      <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="158"/>
-    </row>
-    <row r="57" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="162" t="s">
+    <row r="56" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A56" s="170"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="172"/>
+    </row>
+    <row r="57" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A57" s="154" t="s">
         <v>246</v>
       </c>
-      <c r="B57" s="163"/>
-      <c r="C57" s="164"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="156"/>
       <c r="D57" s="62"/>
     </row>
-    <row r="58" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="162" t="s">
+    <row r="58" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A58" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="B58" s="163"/>
-      <c r="C58" s="164"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="156"/>
       <c r="D58" s="62"/>
     </row>
-    <row r="59" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="153"/>
-      <c r="B59" s="154"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="155"/>
-    </row>
-    <row r="60" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="162" t="s">
+    <row r="59" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A59" s="157"/>
+      <c r="B59" s="158"/>
+      <c r="C59" s="158"/>
+      <c r="D59" s="159"/>
+    </row>
+    <row r="60" spans="1:4" ht="16.350000000000001" customHeight="1">
+      <c r="A60" s="154" t="s">
         <v>248</v>
       </c>
-      <c r="B60" s="163"/>
-      <c r="C60" s="164"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="156"/>
       <c r="D60" s="56" t="e">
         <f>(D52-B3)/(D52-D51)*D57</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="162" t="s">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="154" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="163"/>
-      <c r="C61" s="164"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
       <c r="D61" s="56" t="e">
         <f>(D3-D54)/(D55-D54)*D58</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4">
       <c r="A62" s="173"/>
       <c r="B62" s="174"/>
       <c r="C62" s="174"/>
       <c r="D62" s="174"/>
     </row>
-    <row r="63" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="18.75">
       <c r="A63" s="175" t="s">
         <v>19</v>
       </c>
@@ -6997,142 +6991,135 @@
       <c r="C63" s="175"/>
       <c r="D63" s="175"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="159" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="151" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="160"/>
-      <c r="C64" s="161"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="153"/>
       <c r="D64" s="61"/>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="159" t="s">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="151" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="160"/>
-      <c r="C65" s="161"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="153"/>
       <c r="D65" s="61"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="176"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="178"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="159" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="164"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="166"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="160"/>
-      <c r="C67" s="161"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="153"/>
       <c r="D67" s="61"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="159" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="160"/>
-      <c r="C68" s="161"/>
+      <c r="B68" s="152"/>
+      <c r="C68" s="153"/>
       <c r="D68" s="61"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="179"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="180"/>
-      <c r="D69" s="181"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="162" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="167"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="169"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="154" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="163"/>
-      <c r="C70" s="164"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="156"/>
       <c r="D70" s="62"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="162" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="154" t="s">
         <v>251</v>
       </c>
-      <c r="B71" s="163"/>
-      <c r="C71" s="164"/>
+      <c r="B71" s="155"/>
+      <c r="C71" s="156"/>
       <c r="D71" s="62"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="176"/>
-      <c r="B72" s="177"/>
-      <c r="C72" s="177"/>
-      <c r="D72" s="178"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="162" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="166"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A73" s="154" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="163"/>
-      <c r="C73" s="164"/>
+      <c r="B73" s="155"/>
+      <c r="C73" s="156"/>
       <c r="D73" s="57" t="e">
         <f>(D65-B3)/(D65-D64)*D70</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="162" t="s">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A74" s="154" t="s">
         <v>253</v>
       </c>
-      <c r="B74" s="163"/>
-      <c r="C74" s="164"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="156"/>
       <c r="D74" s="57" t="e">
         <f>(D3-D67)/(D68-D67)*D71</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
       <c r="A75" s="58"/>
       <c r="D75" s="59"/>
     </row>
-    <row r="80" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:4" ht="16.350000000000001" customHeight="1"/>
+    <row r="85" ht="16.350000000000001" customHeight="1"/>
+    <row r="86" ht="16.350000000000001" customHeight="1"/>
+    <row r="87" ht="16.350000000000001" customHeight="1"/>
+    <row r="88" ht="16.350000000000001" customHeight="1"/>
+    <row r="89" ht="16.350000000000001" customHeight="1"/>
+    <row r="92" ht="16.350000000000001" customHeight="1"/>
+    <row r="98" ht="29.85" customHeight="1"/>
+    <row r="99" ht="29.85" customHeight="1"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="73">
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A7:D7"/>
@@ -7149,31 +7136,38 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A49:D49"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7182,7 +7176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
@@ -7190,27 +7184,27 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="76" customWidth="1"/>
-    <col min="2" max="7" width="16.7265625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="76" customWidth="1"/>
+    <col min="2" max="7" width="16.7109375" style="20" customWidth="1"/>
     <col min="8" max="8" width="8" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="20" customWidth="1"/>
     <col min="10" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:7" ht="18.2" customHeight="1">
+      <c r="A1" s="179" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.2" customHeight="1">
       <c r="A2" s="191" t="s">
         <v>215</v>
       </c>
@@ -7221,10 +7215,10 @@
       <c r="F2" s="191"/>
       <c r="G2" s="191"/>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="50"/>
     </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="188" t="s">
         <v>213</v>
       </c>
@@ -7235,7 +7229,7 @@
       <c r="F4" s="189"/>
       <c r="G4" s="190"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="185" t="s">
         <v>20</v>
@@ -7248,7 +7242,7 @@
       <c r="F5" s="186"/>
       <c r="G5" s="187"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="74" t="s">
         <v>17</v>
       </c>
@@ -7271,7 +7265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="72" t="s">
         <v>26</v>
       </c>
@@ -7294,7 +7288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="72" t="s">
         <v>27</v>
       </c>
@@ -7317,7 +7311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A9" s="72" t="s">
         <v>28</v>
       </c>
@@ -7340,7 +7334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A10" s="72" t="s">
         <v>29</v>
       </c>
@@ -7363,13 +7357,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A11" s="53"/>
     </row>
-    <row r="12" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A12" s="53"/>
     </row>
-    <row r="13" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A13" s="185" t="s">
         <v>214</v>
       </c>
@@ -7380,7 +7374,7 @@
       <c r="F13" s="186"/>
       <c r="G13" s="187"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="64"/>
       <c r="B14" s="185" t="s">
         <v>20</v>
@@ -7393,7 +7387,7 @@
       <c r="F14" s="186"/>
       <c r="G14" s="187"/>
     </row>
-    <row r="15" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A15" s="74" t="s">
         <v>17</v>
       </c>
@@ -7416,7 +7410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="72" t="s">
         <v>30</v>
       </c>
@@ -7439,7 +7433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="72" t="s">
         <v>31</v>
       </c>
@@ -7462,7 +7456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A18" s="72" t="s">
         <v>32</v>
       </c>
@@ -7485,61 +7479,61 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="56.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:7" ht="29.85" customHeight="1"/>
+    <row r="20" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="22" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="26" spans="1:7" ht="29.85" customHeight="1"/>
+    <row r="28" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="33" ht="16.350000000000001" customHeight="1"/>
+    <row r="36" ht="16.350000000000001" customHeight="1"/>
+    <row r="37" ht="29.85" customHeight="1"/>
+    <row r="40" ht="29.85" customHeight="1"/>
+    <row r="41" ht="16.350000000000001" customHeight="1"/>
+    <row r="42" ht="16.350000000000001" customHeight="1"/>
+    <row r="43" ht="16.350000000000001" customHeight="1"/>
+    <row r="44" ht="16.350000000000001" customHeight="1"/>
+    <row r="45" ht="16.350000000000001" customHeight="1"/>
+    <row r="46" ht="16.350000000000001" customHeight="1"/>
+    <row r="47" ht="16.350000000000001" customHeight="1"/>
+    <row r="48" ht="16.350000000000001" customHeight="1"/>
+    <row r="49" ht="16.350000000000001" customHeight="1"/>
+    <row r="50" ht="16.350000000000001" customHeight="1"/>
+    <row r="51" ht="16.350000000000001" customHeight="1"/>
+    <row r="52" ht="16.350000000000001" customHeight="1"/>
+    <row r="53" ht="16.350000000000001" customHeight="1"/>
+    <row r="54" ht="16.350000000000001" customHeight="1"/>
+    <row r="55" ht="16.350000000000001" customHeight="1"/>
+    <row r="56" ht="16.350000000000001" customHeight="1"/>
+    <row r="57" ht="16.350000000000001" customHeight="1"/>
+    <row r="58" ht="16.350000000000001" customHeight="1"/>
+    <row r="59" ht="16.350000000000001" customHeight="1"/>
+    <row r="60" ht="16.350000000000001" customHeight="1"/>
+    <row r="61" ht="16.350000000000001" customHeight="1"/>
+    <row r="63" ht="29.85" customHeight="1"/>
+    <row r="66" ht="29.85" customHeight="1"/>
+    <row r="67" ht="29.85" customHeight="1"/>
+    <row r="69" ht="70.150000000000006" customHeight="1"/>
+    <row r="70" ht="70.150000000000006" customHeight="1"/>
+    <row r="71" ht="56.65" customHeight="1"/>
+    <row r="72" ht="43.35" customHeight="1"/>
+    <row r="73" ht="70.150000000000006" customHeight="1"/>
+    <row r="74" ht="43.35" customHeight="1"/>
+    <row r="75" ht="29.85" customHeight="1"/>
+    <row r="79" ht="16.350000000000001" customHeight="1"/>
+    <row r="84" ht="16.350000000000001" customHeight="1"/>
+    <row r="89" ht="16.350000000000001" customHeight="1"/>
+    <row r="90" ht="16.350000000000001" customHeight="1"/>
+    <row r="91" ht="16.350000000000001" customHeight="1"/>
+    <row r="92" ht="16.350000000000001" customHeight="1"/>
+    <row r="93" ht="16.350000000000001" customHeight="1"/>
+    <row r="96" ht="16.350000000000001" customHeight="1"/>
+    <row r="102" ht="29.85" customHeight="1"/>
+    <row r="103" ht="29.85" customHeight="1"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="8">
@@ -7559,7 +7553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:H104"/>
   <sheetViews>
@@ -7567,15 +7561,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="16.7265625" style="20" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" style="20" customWidth="1"/>
     <col min="8" max="8" width="8" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="20" customWidth="1"/>
     <col min="10" max="16384" width="8" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="193" t="s">
         <v>47</v>
       </c>
@@ -7586,7 +7580,7 @@
       <c r="F1" s="193"/>
       <c r="G1" s="193"/>
     </row>
-    <row r="2" spans="1:8" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.2" customHeight="1">
       <c r="A2" s="192" t="s">
         <v>60</v>
       </c>
@@ -7597,7 +7591,7 @@
       <c r="F2" s="192"/>
       <c r="G2" s="192"/>
     </row>
-    <row r="3" spans="1:8" ht="18.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.2" customHeight="1">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -7606,7 +7600,7 @@
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="1:8" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="194" t="s">
         <v>48</v>
       </c>
@@ -7615,7 +7609,7 @@
       <c r="D4" s="194"/>
       <c r="E4" s="78"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="194" t="s">
         <v>33</v>
       </c>
@@ -7627,10 +7621,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="H6" s="60"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="188" t="s">
         <v>63</v>
       </c>
@@ -7641,20 +7635,20 @@
       <c r="F7" s="189"/>
       <c r="G7" s="190"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="185" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="186"/>
       <c r="G8" s="187"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
         <v>17</v>
       </c>
@@ -7677,7 +7671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.350000000000001" customHeight="1">
       <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
@@ -7704,7 +7698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.350000000000001" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
@@ -7731,7 +7725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.350000000000001" customHeight="1">
       <c r="A12" s="72" t="s">
         <v>28</v>
       </c>
@@ -7758,7 +7752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16.350000000000001" customHeight="1">
       <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
@@ -7785,13 +7779,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.350000000000001" customHeight="1">
       <c r="A14" s="53"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.5" customHeight="1">
       <c r="A15" s="53"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="185" t="s">
         <v>64</v>
       </c>
@@ -7802,7 +7796,7 @@
       <c r="F16" s="186"/>
       <c r="G16" s="187"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="64"/>
       <c r="B17" s="185" t="s">
         <v>20</v>
@@ -7815,7 +7809,7 @@
       <c r="F17" s="186"/>
       <c r="G17" s="187"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
@@ -7838,7 +7832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A19" s="72" t="s">
         <v>30</v>
       </c>
@@ -7865,7 +7859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="72" t="s">
         <v>31</v>
       </c>
@@ -7892,7 +7886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
@@ -7919,69 +7913,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107" t="s">
+    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="24" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A24" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-    </row>
-    <row r="27" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="56.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+    </row>
+    <row r="27" spans="1:7" ht="29.85" customHeight="1"/>
+    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="33" ht="16.350000000000001" customHeight="1"/>
+    <row r="34" ht="16.350000000000001" customHeight="1"/>
+    <row r="37" ht="16.350000000000001" customHeight="1"/>
+    <row r="38" ht="29.85" customHeight="1"/>
+    <row r="41" ht="29.85" customHeight="1"/>
+    <row r="42" ht="16.350000000000001" customHeight="1"/>
+    <row r="43" ht="16.350000000000001" customHeight="1"/>
+    <row r="44" ht="16.350000000000001" customHeight="1"/>
+    <row r="45" ht="16.350000000000001" customHeight="1"/>
+    <row r="46" ht="16.350000000000001" customHeight="1"/>
+    <row r="47" ht="16.350000000000001" customHeight="1"/>
+    <row r="48" ht="16.350000000000001" customHeight="1"/>
+    <row r="49" ht="16.350000000000001" customHeight="1"/>
+    <row r="50" ht="16.350000000000001" customHeight="1"/>
+    <row r="51" ht="16.350000000000001" customHeight="1"/>
+    <row r="52" ht="16.350000000000001" customHeight="1"/>
+    <row r="53" ht="16.350000000000001" customHeight="1"/>
+    <row r="54" ht="16.350000000000001" customHeight="1"/>
+    <row r="55" ht="16.350000000000001" customHeight="1"/>
+    <row r="56" ht="16.350000000000001" customHeight="1"/>
+    <row r="57" ht="16.350000000000001" customHeight="1"/>
+    <row r="58" ht="16.350000000000001" customHeight="1"/>
+    <row r="59" ht="16.350000000000001" customHeight="1"/>
+    <row r="60" ht="16.350000000000001" customHeight="1"/>
+    <row r="61" ht="16.350000000000001" customHeight="1"/>
+    <row r="62" ht="16.350000000000001" customHeight="1"/>
+    <row r="64" ht="29.85" customHeight="1"/>
+    <row r="67" ht="29.85" customHeight="1"/>
+    <row r="68" ht="29.85" customHeight="1"/>
+    <row r="70" ht="70.150000000000006" customHeight="1"/>
+    <row r="71" ht="70.150000000000006" customHeight="1"/>
+    <row r="72" ht="56.65" customHeight="1"/>
+    <row r="73" ht="43.35" customHeight="1"/>
+    <row r="74" ht="70.150000000000006" customHeight="1"/>
+    <row r="75" ht="43.35" customHeight="1"/>
+    <row r="76" ht="29.85" customHeight="1"/>
+    <row r="80" ht="16.350000000000001" customHeight="1"/>
+    <row r="85" ht="16.350000000000001" customHeight="1"/>
+    <row r="90" ht="16.350000000000001" customHeight="1"/>
+    <row r="91" ht="16.350000000000001" customHeight="1"/>
+    <row r="92" ht="16.350000000000001" customHeight="1"/>
+    <row r="93" ht="16.350000000000001" customHeight="1"/>
+    <row r="94" ht="16.350000000000001" customHeight="1"/>
+    <row r="97" ht="16.350000000000001" customHeight="1"/>
+    <row r="103" ht="29.85" customHeight="1"/>
+    <row r="104" ht="29.85" customHeight="1"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
@@ -8004,7 +7998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:G104"/>
   <sheetViews>
@@ -8012,26 +8006,26 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" width="16.7265625" style="3" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A1" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-    </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="192" t="s">
         <v>59</v>
       </c>
@@ -8042,7 +8036,7 @@
       <c r="F2" s="192"/>
       <c r="G2" s="192"/>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -8051,29 +8045,29 @@
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="162" t="s">
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="66"/>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="162" t="s">
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="15">
+      <c r="A5" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="164"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
       <c r="E5" s="63">
         <f>ROUND(('CPPD 01-18'!F23-'CPPD 01-18'!C23)/31,0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="15"/>
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="188" t="s">
         <v>61</v>
       </c>
@@ -8084,20 +8078,20 @@
       <c r="F7" s="189"/>
       <c r="G7" s="190"/>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
         <v>17</v>
       </c>
@@ -8120,7 +8114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
@@ -8149,7 +8143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
@@ -8178,7 +8172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A12" s="72" t="s">
         <v>28</v>
       </c>
@@ -8207,7 +8201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
@@ -8236,13 +8230,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A14" s="53"/>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="15">
       <c r="A15" s="53"/>
     </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A16" s="185" t="s">
         <v>62</v>
       </c>
@@ -8253,20 +8247,20 @@
       <c r="F16" s="186"/>
       <c r="G16" s="187"/>
     </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-    </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="15">
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
@@ -8289,7 +8283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A19" s="72" t="s">
         <v>30</v>
       </c>
@@ -8318,7 +8312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="15">
       <c r="A20" s="72" t="s">
         <v>31</v>
       </c>
@@ -8347,7 +8341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="16.350000000000001" customHeight="1">
       <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
@@ -8376,69 +8370,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
+    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="24" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A24" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-    </row>
-    <row r="27" spans="1:7" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="56.65" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="43.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="43.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="29.9" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+    </row>
+    <row r="27" spans="1:7" ht="29.85" customHeight="1"/>
+    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="33" ht="16.350000000000001" customHeight="1"/>
+    <row r="34" ht="16.350000000000001" customHeight="1"/>
+    <row r="37" ht="16.350000000000001" customHeight="1"/>
+    <row r="38" ht="29.85" customHeight="1"/>
+    <row r="41" ht="29.85" customHeight="1"/>
+    <row r="42" ht="16.350000000000001" customHeight="1"/>
+    <row r="43" ht="16.350000000000001" customHeight="1"/>
+    <row r="44" ht="16.350000000000001" customHeight="1"/>
+    <row r="45" ht="16.350000000000001" customHeight="1"/>
+    <row r="46" ht="16.350000000000001" customHeight="1"/>
+    <row r="47" ht="16.350000000000001" customHeight="1"/>
+    <row r="48" ht="16.350000000000001" customHeight="1"/>
+    <row r="49" ht="16.350000000000001" customHeight="1"/>
+    <row r="50" ht="16.350000000000001" customHeight="1"/>
+    <row r="51" ht="16.350000000000001" customHeight="1"/>
+    <row r="52" ht="16.350000000000001" customHeight="1"/>
+    <row r="53" ht="16.350000000000001" customHeight="1"/>
+    <row r="54" ht="16.350000000000001" customHeight="1"/>
+    <row r="55" ht="16.350000000000001" customHeight="1"/>
+    <row r="56" ht="16.350000000000001" customHeight="1"/>
+    <row r="57" ht="16.350000000000001" customHeight="1"/>
+    <row r="58" ht="16.350000000000001" customHeight="1"/>
+    <row r="59" ht="16.350000000000001" customHeight="1"/>
+    <row r="60" ht="16.350000000000001" customHeight="1"/>
+    <row r="61" ht="16.350000000000001" customHeight="1"/>
+    <row r="62" ht="16.350000000000001" customHeight="1"/>
+    <row r="64" ht="29.85" customHeight="1"/>
+    <row r="67" ht="29.85" customHeight="1"/>
+    <row r="68" ht="29.85" customHeight="1"/>
+    <row r="70" ht="70.150000000000006" customHeight="1"/>
+    <row r="71" ht="70.150000000000006" customHeight="1"/>
+    <row r="72" ht="56.65" customHeight="1"/>
+    <row r="73" ht="43.35" customHeight="1"/>
+    <row r="74" ht="70.150000000000006" customHeight="1"/>
+    <row r="75" ht="43.35" customHeight="1"/>
+    <row r="76" ht="29.85" customHeight="1"/>
+    <row r="80" ht="16.350000000000001" customHeight="1"/>
+    <row r="85" ht="16.350000000000001" customHeight="1"/>
+    <row r="90" ht="16.350000000000001" customHeight="1"/>
+    <row r="91" ht="16.350000000000001" customHeight="1"/>
+    <row r="92" ht="16.350000000000001" customHeight="1"/>
+    <row r="93" ht="16.350000000000001" customHeight="1"/>
+    <row r="94" ht="16.350000000000001" customHeight="1"/>
+    <row r="97" ht="16.350000000000001" customHeight="1"/>
+    <row r="103" ht="29.85" customHeight="1"/>
+    <row r="104" ht="29.85" customHeight="1"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
@@ -8461,7 +8455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:I103"/>
   <sheetViews>
@@ -8469,26 +8463,26 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="16.7265625" style="20" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" style="20" customWidth="1"/>
     <col min="8" max="8" width="8" style="39" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="39" customWidth="1"/>
     <col min="10" max="16384" width="8" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1">
+      <c r="A1" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="192" t="s">
         <v>58</v>
       </c>
@@ -8499,7 +8493,7 @@
       <c r="F2" s="192"/>
       <c r="G2" s="192"/>
     </row>
-    <row r="4" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="194" t="s">
         <v>54</v>
       </c>
@@ -8508,7 +8502,7 @@
       <c r="D4" s="194"/>
       <c r="E4" s="70"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="194" t="s">
         <v>51</v>
       </c>
@@ -8520,8 +8514,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="29.85" customHeight="1"/>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="188" t="s">
         <v>56</v>
       </c>
@@ -8534,20 +8528,20 @@
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="74" t="s">
         <v>17</v>
       </c>
@@ -8570,7 +8564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.350000000000001" customHeight="1">
       <c r="A10" s="72" t="s">
         <v>26</v>
       </c>
@@ -8599,7 +8593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.350000000000001" customHeight="1">
       <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
@@ -8628,7 +8622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.350000000000001" customHeight="1">
       <c r="A12" s="72" t="s">
         <v>28</v>
       </c>
@@ -8657,7 +8651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.350000000000001" customHeight="1">
       <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
@@ -8686,13 +8680,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.350000000000001" customHeight="1">
       <c r="A14" s="53"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="53"/>
     </row>
-    <row r="16" spans="1:9" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.350000000000001" customHeight="1">
       <c r="A16" s="185" t="s">
         <v>57</v>
       </c>
@@ -8705,20 +8699,20 @@
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="74" t="s">
         <v>17</v>
       </c>
@@ -8741,7 +8735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A19" s="72" t="s">
         <v>30</v>
       </c>
@@ -8770,7 +8764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="72" t="s">
         <v>31</v>
       </c>
@@ -8799,7 +8793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.350000000000001" customHeight="1">
       <c r="A21" s="72" t="s">
         <v>32</v>
       </c>
@@ -8828,57 +8822,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:7" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="56.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="43.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="29.9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="28" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="29" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="30" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="31" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="32" spans="1:7" ht="16.350000000000001" customHeight="1"/>
+    <row r="33" ht="16.350000000000001" customHeight="1"/>
+    <row r="36" ht="16.350000000000001" customHeight="1"/>
+    <row r="37" ht="29.85" customHeight="1"/>
+    <row r="40" ht="29.85" customHeight="1"/>
+    <row r="41" ht="16.350000000000001" customHeight="1"/>
+    <row r="42" ht="16.350000000000001" customHeight="1"/>
+    <row r="43" ht="16.350000000000001" customHeight="1"/>
+    <row r="44" ht="16.350000000000001" customHeight="1"/>
+    <row r="45" ht="16.350000000000001" customHeight="1"/>
+    <row r="46" ht="16.350000000000001" customHeight="1"/>
+    <row r="47" ht="16.350000000000001" customHeight="1"/>
+    <row r="48" ht="16.350000000000001" customHeight="1"/>
+    <row r="49" ht="16.350000000000001" customHeight="1"/>
+    <row r="50" ht="16.350000000000001" customHeight="1"/>
+    <row r="51" ht="16.350000000000001" customHeight="1"/>
+    <row r="52" ht="16.350000000000001" customHeight="1"/>
+    <row r="53" ht="16.350000000000001" customHeight="1"/>
+    <row r="54" ht="16.350000000000001" customHeight="1"/>
+    <row r="55" ht="16.350000000000001" customHeight="1"/>
+    <row r="56" ht="16.350000000000001" customHeight="1"/>
+    <row r="57" ht="16.350000000000001" customHeight="1"/>
+    <row r="58" ht="16.350000000000001" customHeight="1"/>
+    <row r="59" ht="16.350000000000001" customHeight="1"/>
+    <row r="60" ht="16.350000000000001" customHeight="1"/>
+    <row r="61" ht="16.350000000000001" customHeight="1"/>
+    <row r="63" ht="29.85" customHeight="1"/>
+    <row r="66" ht="29.85" customHeight="1"/>
+    <row r="67" ht="29.85" customHeight="1"/>
+    <row r="69" ht="70.150000000000006" customHeight="1"/>
+    <row r="70" ht="70.150000000000006" customHeight="1"/>
+    <row r="71" ht="56.65" customHeight="1"/>
+    <row r="72" ht="43.35" customHeight="1"/>
+    <row r="73" ht="70.150000000000006" customHeight="1"/>
+    <row r="74" ht="43.35" customHeight="1"/>
+    <row r="75" ht="29.85" customHeight="1"/>
+    <row r="79" ht="16.350000000000001" customHeight="1"/>
+    <row r="84" ht="16.350000000000001" customHeight="1"/>
+    <row r="89" ht="16.350000000000001" customHeight="1"/>
+    <row r="90" ht="16.350000000000001" customHeight="1"/>
+    <row r="91" ht="16.350000000000001" customHeight="1"/>
+    <row r="92" ht="16.350000000000001" customHeight="1"/>
+    <row r="93" ht="16.350000000000001" customHeight="1"/>
+    <row r="96" ht="16.350000000000001" customHeight="1"/>
+    <row r="102" ht="29.85" customHeight="1"/>
+    <row r="103" ht="29.85" customHeight="1"/>
   </sheetData>
   <sheetProtection password="8E9F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="10">
